--- a/doc/graphs.xlsx
+++ b/doc/graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\ZCU\5.semestr\PPR\kiv-ppr\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31EB22AD-5A71-4100-BF1D-76E9BB17776B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7CA493-CC2F-4D93-966A-05821FBF1EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99913033-C086-4C4E-9256-FEA28C5FF52C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99913033-C086-4C4E-9256-FEA28C5FF52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="31">
   <si>
     <t>Total</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>HDD</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>"NVIDIA GeForce MX150"</t>
+  </si>
+  <si>
+    <t>"Intel(R) UHD Graphics 620"</t>
   </si>
 </sst>
 </file>
@@ -333,12 +342,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -352,35 +360,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
@@ -388,8 +394,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,28 +404,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -432,51 +440,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -730,7 +699,7 @@
                   <c:v>77.898420000000016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.817779999999985</c:v>
+                  <c:v>158.84381999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,7 +1127,7 @@
                   <c:v>8.8436500000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.21078</c:v>
+                  <c:v>74.38794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2865,10 +2834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078017B5-66FF-40D9-BAD6-9D97405F26B6}">
-  <dimension ref="B2:AC57"/>
+  <dimension ref="B2:AJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="L16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,6 +2845,7 @@
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="10.140625" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" customWidth="1"/>
@@ -2889,279 +2859,366 @@
     <col min="24" max="24" width="11" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" customWidth="1"/>
     <col min="27" max="27" width="10.28515625" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+    <col min="31" max="31" width="11" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="47"/>
       <c r="E3" s="49" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="50"/>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="47" t="s">
+      <c r="C4" s="44"/>
+      <c r="E4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="M4" s="44" t="s">
+      <c r="F4" s="45"/>
+      <c r="M4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="44" t="s">
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="44" t="s">
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="46"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="42"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="33">
         <f>$M$11/Y11-1</f>
-        <v>-0.74254167434388063</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="33" t="s">
+        <v>-0.81929732158196611</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="34">
         <f>$M$33/Y33-1</f>
-        <v>-0.24734699433299134</v>
-      </c>
-      <c r="M5" s="9" t="s">
+        <v>-0.64075102197869582</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="X5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="11" t="s">
+      <c r="AB5" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="AC5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4"/>
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="23">
         <v>22.201699999999999</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="24">
         <v>19.446899999999999</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="24">
         <v>1.9697800000000001</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="25">
         <v>2.4600000000000002E-5</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="23">
         <v>28.953600000000002</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="24">
         <v>19.488700000000001</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="24">
         <v>9.3638700000000004</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="26">
         <v>2.3670000000000002E-3</v>
       </c>
-      <c r="U6" s="25">
+      <c r="U6" s="23">
         <v>27.416699999999999</v>
       </c>
-      <c r="V6" s="26">
+      <c r="V6" s="24">
         <v>22.825399999999998</v>
       </c>
-      <c r="W6" s="26">
+      <c r="W6" s="24">
         <v>4.4920299999999997</v>
       </c>
-      <c r="X6" s="28">
+      <c r="X6" s="26">
         <v>1.4339000000000001E-3</v>
       </c>
-      <c r="Y6" s="29">
-        <v>48.225299999999997</v>
-      </c>
-      <c r="Z6" s="29">
-        <v>5.6778599999999999</v>
-      </c>
-      <c r="AA6" s="29">
-        <v>40.592300000000002</v>
-      </c>
-      <c r="AB6" s="59">
-        <v>2.4337E-3</v>
+      <c r="Y6" s="24">
+        <v>98.755600000000001</v>
+      </c>
+      <c r="Z6" s="24">
+        <v>38.459400000000002</v>
+      </c>
+      <c r="AA6" s="24">
+        <v>60.295699999999997</v>
+      </c>
+      <c r="AB6" s="39">
+        <v>2.6929999999999999E-4</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>71.3399</v>
+      </c>
+      <c r="AD6" s="24">
+        <v>29.060400000000001</v>
+      </c>
+      <c r="AE6" s="24">
+        <v>42.279200000000003</v>
+      </c>
+      <c r="AF6" s="39">
+        <v>2.0120000000000001E-4</v>
+      </c>
+      <c r="AG6" s="24">
+        <v>130.49600000000001</v>
+      </c>
+      <c r="AH6" s="24">
+        <v>42.5137</v>
+      </c>
+      <c r="AI6" s="24">
+        <v>87.633499999999998</v>
+      </c>
+      <c r="AJ6" s="39">
+        <v>0.34370499999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="47" t="s">
+      <c r="C7" s="44"/>
+      <c r="E7" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="48"/>
+      <c r="F7" s="45"/>
       <c r="L7">
         <v>2</v>
       </c>
       <c r="M7" s="3">
         <v>11.2105</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7">
         <v>8.7071400000000008</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7">
         <v>1.7282900000000001</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="20">
         <v>2.3200000000000001E-5</v>
       </c>
       <c r="Q7" s="3">
         <v>5.50204</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7">
         <v>3.5453299999999999</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7">
         <v>1.9545600000000001</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <v>1.9848000000000001E-3</v>
       </c>
       <c r="U7" s="3">
         <v>4.2774900000000002</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7">
         <v>2.3742000000000001</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7">
         <v>1.90303</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="4">
         <v>1.261E-4</v>
       </c>
       <c r="Y7" s="3">
+        <v>70.7089</v>
+      </c>
+      <c r="Z7">
+        <v>17.5487</v>
+      </c>
+      <c r="AA7">
+        <v>53.159500000000001</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>5.1619999999999997E-4</v>
+      </c>
+      <c r="AC7" s="3">
         <v>47.948300000000003</v>
       </c>
-      <c r="Z7" s="4">
-        <v>5.9172599999999997</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>40.845100000000002</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>8.2450000000000004E-4</v>
+      <c r="AD7">
+        <v>22.022500000000001</v>
+      </c>
+      <c r="AE7">
+        <v>44.294800000000002</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>66.3185</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>85.548100000000005</v>
+      </c>
+      <c r="AH7">
+        <v>23.5456</v>
+      </c>
+      <c r="AI7">
+        <v>62.002200000000002</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>2.098E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="33">
         <f>$M$11/Q11-1</f>
         <v>0.40228653835802053</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="34">
         <f>$M$33/Q33-1</f>
         <v>-0.50144681775142619</v>
       </c>
@@ -3171,121 +3228,165 @@
       <c r="M8" s="3">
         <v>11.237299999999999</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8">
         <v>8.7405399999999993</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8">
         <v>1.71983</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="20">
         <v>2.3099999999999999E-5</v>
       </c>
       <c r="Q8" s="3">
         <v>4.3737300000000001</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8">
         <v>2.3956599999999999</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8">
         <v>1.97618</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="4">
         <v>1.6858000000000001E-3</v>
       </c>
       <c r="U8" s="3">
         <v>4.1361699999999999</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8">
         <v>2.3000099999999999</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8">
         <v>1.8358000000000001</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="4">
         <v>1.384E-4</v>
       </c>
       <c r="Y8" s="3">
+        <v>57.143000000000001</v>
+      </c>
+      <c r="Z8">
+        <v>15.412800000000001</v>
+      </c>
+      <c r="AA8">
+        <v>41.392299999999999</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0.337501</v>
+      </c>
+      <c r="AC8" s="3">
         <v>53.833799999999997</v>
       </c>
-      <c r="Z8" s="4">
-        <v>10.458600000000001</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>41.622599999999998</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>8.5439999999999995E-4</v>
+      <c r="AD8">
+        <v>7.8673999999999999</v>
+      </c>
+      <c r="AE8">
+        <v>42.603900000000003</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>50.472299999999997</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>80.753500000000003</v>
+      </c>
+      <c r="AH8">
+        <v>17.586400000000001</v>
+      </c>
+      <c r="AI8">
+        <v>63.166600000000003</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>1.5750000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
       <c r="L9">
         <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>11.279299999999999</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9">
         <v>8.7478099999999994</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9">
         <v>1.73159</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="20">
         <v>2.3600000000000001E-5</v>
       </c>
       <c r="Q9" s="3">
         <v>4.4537500000000003</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9">
         <v>2.47424</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9">
         <v>1.9777899999999999</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="4">
         <v>1.5640000000000001E-3</v>
       </c>
       <c r="U9" s="3">
         <v>4.1925999999999997</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9">
         <v>2.3621500000000002</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9">
         <v>1.8302099999999999</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="4">
         <v>1.122E-4</v>
       </c>
       <c r="Y9" s="3">
+        <v>84.063199999999995</v>
+      </c>
+      <c r="Z9">
+        <v>15.668200000000001</v>
+      </c>
+      <c r="AA9">
+        <v>68.393699999999995</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1.1057E-3</v>
+      </c>
+      <c r="AC9" s="3">
         <v>55.523200000000003</v>
       </c>
-      <c r="Z9" s="4">
-        <v>10.676399999999999</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>42.377400000000002</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>8.8690000000000004E-4</v>
+      <c r="AD9">
+        <v>9.3104499999999994</v>
+      </c>
+      <c r="AE9">
+        <v>43.088700000000003</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>52.400100000000002</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>80.055700000000002</v>
+      </c>
+      <c r="AH9">
+        <v>17.671900000000001</v>
+      </c>
+      <c r="AI9">
+        <v>62.382599999999996</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>1.0199E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="47" t="s">
+      <c r="C10" s="44"/>
+      <c r="E10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="L10" s="5">
+      <c r="F10" s="45"/>
+      <c r="L10" s="4">
         <v>5</v>
       </c>
       <c r="M10">
@@ -3303,1391 +3404,1861 @@
       <c r="Q10" s="3">
         <v>4.6460999999999997</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10">
         <v>2.5812499999999998</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10">
         <v>2.0631400000000002</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="4">
         <v>1.5555E-3</v>
       </c>
       <c r="U10" s="3">
         <v>4.19529</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10">
         <v>2.3786200000000002</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10">
         <v>1.81576</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="4">
         <v>1.8450000000000001E-4</v>
       </c>
       <c r="Y10" s="3">
+        <v>61.268999999999998</v>
+      </c>
+      <c r="Z10">
+        <v>15.082100000000001</v>
+      </c>
+      <c r="AA10">
+        <v>46.185600000000001</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>1.1328E-3</v>
+      </c>
+      <c r="AC10" s="3">
         <v>55.523299999999999</v>
       </c>
-      <c r="Z10" s="4">
-        <v>10.516</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>42.432000000000002</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>9.0269999999999999E-4</v>
+      <c r="AD10">
+        <v>8.2233499999999999</v>
+      </c>
+      <c r="AE10">
+        <v>42.769599999999997</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>50.993400000000001</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>80.166799999999995</v>
+      </c>
+      <c r="AH10">
+        <v>19.6143</v>
+      </c>
+      <c r="AI10">
+        <v>60.529299999999999</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>1.9998200000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="36">
         <f>$M$11/U11-1</f>
         <v>0.51997195728008228</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="40" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="38">
         <f>($M$33/U33)-1</f>
         <v>-0.26745009719067481</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="12">
+      <c r="L11" s="4"/>
+      <c r="M11" s="11">
         <f>AVERAGE(M6:M10)</f>
         <v>13.4421</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <f>AVERAGE(N6:N10)</f>
         <v>10.884374000000001</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="12">
         <f>AVERAGE(O6:O10)</f>
         <v>1.7731980000000001</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="13">
         <f>AVERAGE(P6:P10)</f>
         <v>2.2739999999999999E-5</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="11">
         <f t="shared" ref="Q11:AB11" si="0">AVERAGE(Q6:Q10)</f>
         <v>9.5858439999999998</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="12">
         <f t="shared" si="0"/>
         <v>6.097036000000001</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="12">
         <f t="shared" si="0"/>
         <v>3.4671080000000005</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="13">
         <f t="shared" si="0"/>
         <v>1.8314200000000003E-3</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="11">
         <f t="shared" si="0"/>
         <v>8.8436500000000002</v>
       </c>
-      <c r="V11" s="13">
+      <c r="V11" s="12">
         <f t="shared" si="0"/>
         <v>6.4480759999999986</v>
       </c>
-      <c r="W11" s="13">
+      <c r="W11" s="12">
         <f t="shared" si="0"/>
         <v>2.3753659999999996</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="13">
         <f t="shared" si="0"/>
         <v>3.9902000000000004E-4</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="11">
         <f t="shared" si="0"/>
-        <v>52.21078</v>
-      </c>
-      <c r="Z11" s="13">
+        <v>74.38794</v>
+      </c>
+      <c r="Z11" s="12">
         <f t="shared" si="0"/>
-        <v>8.6492240000000002</v>
-      </c>
-      <c r="AA11" s="13">
+        <v>20.434239999999999</v>
+      </c>
+      <c r="AA11" s="12">
         <f t="shared" si="0"/>
-        <v>41.573879999999996</v>
-      </c>
-      <c r="AB11" s="13">
+        <v>53.885360000000006</v>
+      </c>
+      <c r="AB11" s="12">
         <f t="shared" si="0"/>
-        <v>1.18044E-3</v>
-      </c>
-      <c r="AC11" s="3"/>
+        <v>6.8104999999999999E-2</v>
+      </c>
+      <c r="AC11" s="11">
+        <f t="shared" ref="AC11:AF11" si="1">AVERAGE(AC6:AC10)</f>
+        <v>56.8337</v>
+      </c>
+      <c r="AD11" s="12">
+        <f t="shared" si="1"/>
+        <v>15.29682</v>
+      </c>
+      <c r="AE11" s="12">
+        <f t="shared" si="1"/>
+        <v>43.00724000000001</v>
+      </c>
+      <c r="AF11" s="12">
+        <f t="shared" si="1"/>
+        <v>44.036900240000008</v>
+      </c>
+      <c r="AG11" s="11">
+        <f t="shared" ref="AG11:AJ11" si="2">AVERAGE(AG6:AG10)</f>
+        <v>91.404019999999988</v>
+      </c>
+      <c r="AH11" s="12">
+        <f t="shared" si="2"/>
+        <v>24.18638</v>
+      </c>
+      <c r="AI11" s="12">
+        <f t="shared" si="2"/>
+        <v>67.142839999999993</v>
+      </c>
+      <c r="AJ11" s="12">
+        <f t="shared" si="2"/>
+        <v>7.3018079999999999E-2</v>
+      </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="17"/>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="16"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13">
         <v>1000000000</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="31">
         <v>1000000497</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="5"/>
+      <c r="T13" s="4"/>
       <c r="U13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13">
         <v>1000000000</v>
       </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="5"/>
+      <c r="X13" s="4"/>
       <c r="Y13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13">
         <v>1000000000</v>
       </c>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="5"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD13">
+        <v>1000000000</v>
+      </c>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH13">
+        <v>1000000000</v>
+      </c>
+      <c r="AJ13" s="4"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14">
         <v>-3572.2</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14">
         <v>-3391.81</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="5"/>
+      <c r="T14" s="4"/>
       <c r="U14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14">
         <v>-3572.2</v>
       </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="5"/>
+      <c r="X14" s="4"/>
       <c r="Y14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14">
         <v>-3572.2</v>
       </c>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="5"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD14">
+        <v>-3572.2</v>
+      </c>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH14">
+        <v>-3572.2</v>
+      </c>
+      <c r="AJ14" s="4"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15">
         <v>-6.1092199999999997</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15">
         <v>-6.1092199999999997</v>
       </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="5"/>
+      <c r="T15" s="4"/>
       <c r="U15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15">
         <v>-6.1092199999999997</v>
       </c>
-      <c r="W15" s="4"/>
-      <c r="X15" s="5"/>
+      <c r="X15" s="4"/>
       <c r="Y15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z15">
         <v>-6.1092199999999997</v>
       </c>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="5"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD15">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH15">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="AJ15" s="4"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16">
         <v>5.8726099999999999</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="5"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16">
         <v>5.8726099999999999</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="5"/>
+      <c r="T16" s="4"/>
       <c r="U16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16">
         <v>5.8726099999999999</v>
       </c>
-      <c r="W16" s="4"/>
-      <c r="X16" s="5"/>
+      <c r="X16" s="4"/>
       <c r="Y16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16">
         <v>5.8726099999999999</v>
       </c>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="5"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD16">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH16">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="AJ16" s="4"/>
     </row>
-    <row r="17" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:36" x14ac:dyDescent="0.25">
       <c r="M17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17">
         <v>1.0000500000000001</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="5"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17">
         <v>1.00019171135208</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="5"/>
+      <c r="T17" s="4"/>
       <c r="U17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17">
         <v>1.0000500000000001</v>
       </c>
-      <c r="W17" s="4"/>
-      <c r="X17" s="5"/>
+      <c r="X17" s="4"/>
       <c r="Y17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17">
         <v>1.0000500000000001</v>
       </c>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="5"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD17">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH17">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="AJ17" s="4"/>
     </row>
-    <row r="18" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:36" x14ac:dyDescent="0.25">
       <c r="M18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
+      <c r="P18" s="4"/>
       <c r="Q18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="1">
         <v>-3.3918100000000001E-6</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="5"/>
+      <c r="T18" s="4"/>
       <c r="U18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V18" s="18">
+      <c r="V18" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
-      <c r="W18" s="4"/>
-      <c r="X18" s="5"/>
+      <c r="X18" s="4"/>
       <c r="Y18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="Z18" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="5"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="AJ18" s="4"/>
     </row>
-    <row r="19" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:36" x14ac:dyDescent="0.25">
       <c r="M19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="4" t="b">
+      <c r="N19" t="b">
         <v>1</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="5"/>
+      <c r="P19" s="4"/>
       <c r="Q19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R19" s="4" t="b">
+      <c r="R19" t="b">
         <v>1</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="5"/>
+      <c r="T19" s="4"/>
       <c r="U19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V19" s="4" t="b">
+      <c r="V19" t="b">
         <v>1</v>
       </c>
-      <c r="W19" s="4"/>
-      <c r="X19" s="5"/>
+      <c r="X19" s="4"/>
       <c r="Y19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z19" s="4" t="b">
+      <c r="Z19" t="b">
         <v>1</v>
       </c>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="5"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="4"/>
     </row>
-    <row r="20" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:36" x14ac:dyDescent="0.25">
       <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="5"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="5"/>
+      <c r="T20" s="4"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="5"/>
+      <c r="X20" s="4"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="5"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="3"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="3"/>
+      <c r="AJ20" s="4"/>
     </row>
-    <row r="21" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="M21" s="19" t="s">
+    <row r="21" spans="6:36" x14ac:dyDescent="0.25">
+      <c r="M21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="P21" s="21" t="s">
+      <c r="P21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="19" t="s">
+      <c r="Q21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R21" s="20" t="s">
+      <c r="R21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="20" t="s">
+      <c r="S21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="T21" s="21" t="s">
+      <c r="T21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="U21" s="19" t="s">
+      <c r="U21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="V21" s="20" t="s">
+      <c r="V21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="W21" s="20" t="s">
+      <c r="W21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X21" s="21" t="s">
+      <c r="X21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Y21" s="19" t="s">
+      <c r="Y21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Z21" s="20" t="s">
+      <c r="Z21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AA21" s="20" t="s">
+      <c r="AA21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AB21" s="21" t="s">
+      <c r="AB21" s="19" t="s">
         <v>18</v>
       </c>
+      <c r="AC21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE21" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI21" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ21" s="19" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="22" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="M22" s="6">
+    <row r="22" spans="6:36" x14ac:dyDescent="0.25">
+      <c r="M22" s="5">
         <v>1.1281399999999999</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <v>1.69685</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="O22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="7">
         <v>0.489311</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="5">
         <v>1.05559</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="6">
         <v>1.6347499999999999</v>
       </c>
-      <c r="S22" s="24" t="s">
+      <c r="S22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="7">
         <v>0.446685</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="5">
         <v>1.07643</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="6">
         <v>1.65564</v>
       </c>
-      <c r="W22" s="24" t="s">
+      <c r="W22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="X22" s="8">
+      <c r="X22" s="7">
         <v>0.46757399999999999</v>
       </c>
-      <c r="Y22" s="6">
-        <v>1.70692</v>
-      </c>
-      <c r="Z22" s="7">
-        <v>2.2859600000000002</v>
-      </c>
-      <c r="AA22" s="24" t="s">
+      <c r="Y22" s="5">
+        <v>0.27474599999999999</v>
+      </c>
+      <c r="Z22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AB22" s="8">
-        <v>1.09789</v>
+      <c r="AA22" s="22">
+        <v>1.24631</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>1.13198</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>0.27474599999999999</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE22" s="22">
+        <v>1.24631</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>1.13198</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>0.27474599999999999</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI22" s="22">
+        <v>1.24631</v>
+      </c>
+      <c r="AJ22" s="7">
+        <v>1.13198</v>
       </c>
     </row>
-    <row r="23" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:36" x14ac:dyDescent="0.25">
       <c r="S23" s="1"/>
     </row>
-    <row r="25" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="M25" s="54" t="s">
+    <row r="25" spans="6:36" x14ac:dyDescent="0.25">
+      <c r="M25" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="43"/>
     </row>
-    <row r="26" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="M26" s="55" t="s">
+    <row r="26" spans="6:36" x14ac:dyDescent="0.25">
+      <c r="M26" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="44" t="s">
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="44" t="s">
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="44" t="s">
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="46"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="42"/>
     </row>
-    <row r="27" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="9" t="s">
+    <row r="27" spans="6:36" x14ac:dyDescent="0.25">
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="9" t="s">
+      <c r="Q27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="R27" s="10" t="s">
+      <c r="R27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="S27" s="10" t="s">
+      <c r="S27" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="T27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="U27" s="9" t="s">
+      <c r="U27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="V27" s="10" t="s">
+      <c r="V27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="W27" s="10" t="s">
+      <c r="W27" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="X27" s="11" t="s">
+      <c r="X27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y27" s="9" t="s">
+      <c r="Y27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="Z27" s="10" t="s">
+      <c r="Z27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AA27" s="10" t="s">
+      <c r="AA27" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AB27" s="11" t="s">
+      <c r="AB27" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="AC27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:36" x14ac:dyDescent="0.25">
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="23">
         <v>95.137500000000003</v>
       </c>
-      <c r="N28" s="26">
+      <c r="N28" s="24">
         <v>78.7851</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O28" s="24">
         <v>15.600099999999999</v>
       </c>
-      <c r="P28" s="27">
+      <c r="P28" s="25">
         <v>4.5307000000000004E-3</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="Q28" s="23">
         <v>539.36900000000003</v>
       </c>
-      <c r="R28" s="26">
+      <c r="R28" s="24">
         <v>534.91399999999999</v>
       </c>
-      <c r="S28" s="26">
+      <c r="S28" s="24">
         <v>4.4537300000000002</v>
       </c>
-      <c r="T28" s="28">
+      <c r="T28" s="26">
         <v>2.398E-4</v>
       </c>
-      <c r="U28" s="25">
+      <c r="U28" s="23">
         <v>358.86200000000002</v>
       </c>
-      <c r="V28" s="26">
+      <c r="V28" s="24">
         <v>354.51799999999997</v>
       </c>
-      <c r="W28" s="26">
+      <c r="W28" s="24">
         <v>4.3432300000000001</v>
       </c>
-      <c r="X28" s="28">
+      <c r="X28" s="26">
         <v>1.929E-4</v>
       </c>
-      <c r="Y28" s="25">
-        <v>183.74199999999999</v>
-      </c>
-      <c r="Z28" s="26">
-        <v>73.856499999999997</v>
-      </c>
-      <c r="AA28" s="26">
-        <v>108.121</v>
-      </c>
-      <c r="AB28" s="28">
-        <v>0.149668</v>
+      <c r="Y28" s="23">
+        <v>306.86900000000003</v>
+      </c>
+      <c r="Z28" s="24">
+        <v>265.71899999999999</v>
+      </c>
+      <c r="AA28" s="24">
+        <v>41.146299999999997</v>
+      </c>
+      <c r="AB28" s="26">
+        <v>1.716E-4</v>
+      </c>
+      <c r="AC28" s="24">
+        <v>130.892</v>
+      </c>
+      <c r="AD28" s="24">
+        <v>88.447299999999998</v>
+      </c>
+      <c r="AE28" s="24">
+        <v>42.304400000000001</v>
+      </c>
+      <c r="AF28" s="39">
+        <v>0.13605100000000001</v>
+      </c>
+      <c r="AG28" s="24">
+        <v>232.37799999999999</v>
+      </c>
+      <c r="AH28" s="24">
+        <v>95.608599999999996</v>
+      </c>
+      <c r="AI28" s="24">
+        <v>136.64599999999999</v>
+      </c>
+      <c r="AJ28" s="39">
+        <v>0.119835</v>
       </c>
     </row>
-    <row r="29" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:36" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>2</v>
       </c>
       <c r="M29" s="3">
         <v>88.278099999999995</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29">
         <v>71.305599999999998</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29">
         <v>16.140599999999999</v>
       </c>
-      <c r="P29" s="22">
+      <c r="P29" s="20">
         <v>3.4499999999999998E-5</v>
       </c>
       <c r="Q29" s="3">
         <v>8.3488299999999995</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29">
         <v>3.5907100000000001</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S29">
         <v>4.7515000000000001</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29" s="4">
         <v>2.8108999999999999E-3</v>
       </c>
       <c r="U29" s="3">
         <v>7.4974499999999997</v>
       </c>
-      <c r="V29" s="4">
+      <c r="V29">
         <v>3.0342899999999999</v>
       </c>
-      <c r="W29" s="4">
+      <c r="W29">
         <v>4.4612699999999998</v>
       </c>
-      <c r="X29" s="5">
+      <c r="X29" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="Y29" s="3">
-        <v>47.122</v>
-      </c>
-      <c r="Z29" s="4">
-        <v>5.55741</v>
-      </c>
-      <c r="AA29" s="4">
-        <v>39.974699999999999</v>
-      </c>
-      <c r="AB29" s="5">
-        <v>0.14752699999999999</v>
+        <v>99.040800000000004</v>
+      </c>
+      <c r="Z29">
+        <v>23.1191</v>
+      </c>
+      <c r="AA29">
+        <v>75.921300000000002</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>2.9799999999999998E-4</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>50.305799999999998</v>
+      </c>
+      <c r="AD29">
+        <v>7.95953</v>
+      </c>
+      <c r="AE29">
+        <v>42.345999999999997</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>1.5589999999999999E-4</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>106.94499999999999</v>
+      </c>
+      <c r="AH29">
+        <v>47.895899999999997</v>
+      </c>
+      <c r="AI29">
+        <v>58.697000000000003</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>0.34987000000000001</v>
       </c>
     </row>
-    <row r="30" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:36" x14ac:dyDescent="0.25">
       <c r="L30">
         <v>3</v>
       </c>
       <c r="M30" s="3">
         <v>34.024799999999999</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30">
         <v>17.0337</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30">
         <v>16.161300000000001</v>
       </c>
-      <c r="P30" s="22">
+      <c r="P30" s="20">
         <v>3.3899999999999997E-5</v>
       </c>
       <c r="Q30" s="3">
         <v>8.0589200000000005</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30">
         <v>3.3200500000000002</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S30">
         <v>4.7301000000000002</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30" s="4">
         <v>2.6132999999999998E-3</v>
       </c>
       <c r="U30" s="3">
         <v>7.8038400000000001</v>
       </c>
-      <c r="V30" s="4">
+      <c r="V30">
         <v>2.948</v>
       </c>
-      <c r="W30" s="4">
+      <c r="W30">
         <v>4.8553800000000003</v>
       </c>
-      <c r="X30" s="5">
+      <c r="X30" s="4">
         <v>2.1460000000000001E-4</v>
       </c>
       <c r="Y30" s="3">
-        <v>48.469700000000003</v>
-      </c>
-      <c r="Z30" s="4">
-        <v>6.1352500000000001</v>
-      </c>
-      <c r="AA30" s="4">
-        <v>40.686999999999998</v>
-      </c>
-      <c r="AB30" s="5">
-        <v>0.101516</v>
+        <v>75.964399999999998</v>
+      </c>
+      <c r="Z30">
+        <v>15.4358</v>
+      </c>
+      <c r="AA30">
+        <v>60.527999999999999</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>3.59E-4</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>53.991300000000003</v>
+      </c>
+      <c r="AD30">
+        <v>10.8086</v>
+      </c>
+      <c r="AE30">
+        <v>43.1815</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>1.0549999999999999E-3</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>106.47</v>
+      </c>
+      <c r="AH30">
+        <v>41.6798</v>
+      </c>
+      <c r="AI30">
+        <v>64.437899999999999</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>0.34947</v>
       </c>
     </row>
-    <row r="31" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:36" x14ac:dyDescent="0.25">
       <c r="L31">
         <v>4</v>
       </c>
       <c r="M31" s="3">
         <v>33.982399999999998</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31">
         <v>17.155100000000001</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31">
         <v>16.043600000000001</v>
       </c>
-      <c r="P31" s="22">
+      <c r="P31" s="20">
         <v>3.3200000000000001E-5</v>
       </c>
       <c r="Q31" s="3">
         <v>8.2241</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31">
         <v>3.4101400000000002</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S31">
         <v>4.8086099999999998</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" s="4">
         <v>1.9254999999999999E-3</v>
       </c>
       <c r="U31" s="3">
         <v>7.7205000000000004</v>
       </c>
-      <c r="V31" s="4">
+      <c r="V31">
         <v>3.2212999999999998</v>
       </c>
-      <c r="W31" s="4">
+      <c r="W31">
         <v>4.4987500000000002</v>
       </c>
-      <c r="X31" s="5">
+      <c r="X31" s="4">
         <v>2.164E-4</v>
       </c>
       <c r="Y31" s="3">
-        <v>47.313299999999998</v>
-      </c>
-      <c r="Z31" s="4">
-        <v>5.8372700000000002</v>
-      </c>
-      <c r="AA31" s="4">
-        <v>40.157600000000002</v>
-      </c>
-      <c r="AB31" s="5">
-        <v>5.3574E-3</v>
+        <v>90.054900000000004</v>
+      </c>
+      <c r="Z31">
+        <v>22.6053</v>
+      </c>
+      <c r="AA31">
+        <v>67.448999999999998</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>2.5139999999999999E-4</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>57.002000000000002</v>
+      </c>
+      <c r="AD31">
+        <v>10.6957</v>
+      </c>
+      <c r="AE31">
+        <v>46.305199999999999</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>8.6620000000000002E-4</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>112.46899999999999</v>
+      </c>
+      <c r="AH31">
+        <v>53.504600000000003</v>
+      </c>
+      <c r="AI31">
+        <v>58.963299999999997</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>6.5799999999999995E-4</v>
       </c>
     </row>
-    <row r="32" spans="6:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:36" x14ac:dyDescent="0.25">
       <c r="L32">
         <v>5</v>
       </c>
       <c r="M32" s="3">
         <v>33.8996</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32">
         <v>17.034099999999999</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32">
         <v>16.056699999999999</v>
       </c>
-      <c r="P32" s="22">
+      <c r="P32" s="20">
         <v>3.4E-5</v>
       </c>
       <c r="Q32" s="3">
         <v>8.2999799999999997</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R32">
         <v>3.5388099999999998</v>
       </c>
-      <c r="S32" s="4">
+      <c r="S32">
         <v>4.7552700000000003</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="4">
         <v>2.5038E-3</v>
       </c>
       <c r="U32" s="3">
         <v>7.6083100000000004</v>
       </c>
-      <c r="V32" s="4">
+      <c r="V32">
         <v>3.0502199999999999</v>
       </c>
-      <c r="W32" s="4">
+      <c r="W32">
         <v>4.5576699999999999</v>
       </c>
-      <c r="X32" s="5">
+      <c r="X32" s="4">
         <v>2.0699999999999999E-4</v>
       </c>
       <c r="Y32" s="3">
-        <v>52.441899999999997</v>
-      </c>
-      <c r="Z32" s="4">
-        <v>10.960900000000001</v>
-      </c>
-      <c r="AA32" s="4">
-        <v>40.258600000000001</v>
-      </c>
-      <c r="AB32" s="5">
-        <v>1.0572E-2</v>
+        <v>222.29</v>
+      </c>
+      <c r="Z32">
+        <v>32.599200000000003</v>
+      </c>
+      <c r="AA32">
+        <v>189.53299999999999</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>4.5682E-2</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>91.759699999999995</v>
+      </c>
+      <c r="AD32">
+        <v>43.464300000000001</v>
+      </c>
+      <c r="AE32">
+        <v>47.905799999999999</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>0.38122699999999998</v>
+      </c>
+      <c r="AG32">
+        <v>84.630899999999997</v>
+      </c>
+      <c r="AH32">
+        <v>25.248100000000001</v>
+      </c>
+      <c r="AI32">
+        <v>59.3825</v>
+      </c>
+      <c r="AJ32">
+        <v>1.953E-4</v>
       </c>
     </row>
-    <row r="33" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="12">
+    <row r="33" spans="12:36" x14ac:dyDescent="0.25">
+      <c r="L33" s="4"/>
+      <c r="M33" s="11">
         <f>AVERAGE(M28:M32)</f>
         <v>57.064480000000003</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="12">
         <f>AVERAGE(N28:N32)</f>
         <v>40.262720000000002</v>
       </c>
-      <c r="O33" s="13">
-        <f t="shared" ref="O33" si="1">AVERAGE(O28:O32)</f>
+      <c r="O33" s="12">
+        <f t="shared" ref="O33" si="3">AVERAGE(O28:O32)</f>
         <v>16.000459999999997</v>
       </c>
-      <c r="P33" s="14">
-        <f t="shared" ref="P33" si="2">AVERAGE(P28:P32)</f>
+      <c r="P33" s="13">
+        <f t="shared" ref="P33" si="4">AVERAGE(P28:P32)</f>
         <v>9.3325999999999999E-4</v>
       </c>
-      <c r="Q33" s="12">
-        <f t="shared" ref="Q33" si="3">AVERAGE(Q28:Q32)</f>
+      <c r="Q33" s="11">
+        <f t="shared" ref="Q33" si="5">AVERAGE(Q28:Q32)</f>
         <v>114.460166</v>
       </c>
-      <c r="R33" s="13">
+      <c r="R33" s="12">
         <f>AVERAGE(R28:R32)</f>
         <v>109.75474199999999</v>
       </c>
-      <c r="S33" s="13">
-        <f t="shared" ref="S33" si="4">AVERAGE(S28:S32)</f>
+      <c r="S33" s="12">
+        <f t="shared" ref="S33" si="6">AVERAGE(S28:S32)</f>
         <v>4.6998420000000003</v>
       </c>
-      <c r="T33" s="14">
-        <f t="shared" ref="T33" si="5">AVERAGE(T28:T32)</f>
+      <c r="T33" s="13">
+        <f t="shared" ref="T33" si="7">AVERAGE(T28:T32)</f>
         <v>2.0186599999999998E-3</v>
       </c>
-      <c r="U33" s="12">
-        <f t="shared" ref="U33" si="6">AVERAGE(U28:U32)</f>
+      <c r="U33" s="11">
+        <f t="shared" ref="U33" si="8">AVERAGE(U28:U32)</f>
         <v>77.898420000000016</v>
       </c>
-      <c r="V33" s="13">
-        <f t="shared" ref="V33" si="7">AVERAGE(V28:V32)</f>
+      <c r="V33" s="12">
+        <f t="shared" ref="V33" si="9">AVERAGE(V28:V32)</f>
         <v>73.354361999999995</v>
       </c>
-      <c r="W33" s="13">
-        <f t="shared" ref="W33" si="8">AVERAGE(W28:W32)</f>
+      <c r="W33" s="12">
+        <f t="shared" ref="W33" si="10">AVERAGE(W28:W32)</f>
         <v>4.543260000000001</v>
       </c>
-      <c r="X33" s="14">
-        <f t="shared" ref="X33" si="9">AVERAGE(X28:X32)</f>
+      <c r="X33" s="13">
+        <f t="shared" ref="X33" si="11">AVERAGE(X28:X32)</f>
         <v>2.0617999999999998E-4</v>
       </c>
-      <c r="Y33" s="12">
-        <f t="shared" ref="Y33" si="10">AVERAGE(Y28:Y32)</f>
-        <v>75.817779999999985</v>
-      </c>
-      <c r="Z33" s="13">
-        <f t="shared" ref="Z33" si="11">AVERAGE(Z28:Z32)</f>
-        <v>20.469466000000001</v>
-      </c>
-      <c r="AA33" s="13">
-        <f t="shared" ref="AA33" si="12">AVERAGE(AA28:AA32)</f>
-        <v>53.839779999999998</v>
-      </c>
-      <c r="AB33" s="13">
-        <f t="shared" ref="AB33" si="13">AVERAGE(AB28:AB32)</f>
-        <v>8.2928080000000001E-2</v>
+      <c r="Y33" s="11">
+        <f t="shared" ref="Y33" si="12">AVERAGE(Y28:Y32)</f>
+        <v>158.84381999999999</v>
+      </c>
+      <c r="Z33" s="12">
+        <f t="shared" ref="Z33" si="13">AVERAGE(Z28:Z32)</f>
+        <v>71.895679999999999</v>
+      </c>
+      <c r="AA33" s="12">
+        <f t="shared" ref="AA33" si="14">AVERAGE(AA28:AA32)</f>
+        <v>86.915519999999987</v>
+      </c>
+      <c r="AB33" s="12">
+        <f t="shared" ref="AB33:AF33" si="15">AVERAGE(AB28:AB32)</f>
+        <v>9.3524000000000003E-3</v>
+      </c>
+      <c r="AC33" s="11">
+        <f t="shared" si="15"/>
+        <v>76.79016</v>
+      </c>
+      <c r="AD33" s="12">
+        <f t="shared" si="15"/>
+        <v>32.275086000000002</v>
+      </c>
+      <c r="AE33" s="12">
+        <f t="shared" si="15"/>
+        <v>44.408579999999994</v>
+      </c>
+      <c r="AF33" s="12">
+        <f t="shared" si="15"/>
+        <v>0.10387101999999999</v>
+      </c>
+      <c r="AG33" s="11">
+        <f>AVERAGE(AG28:AG32)</f>
+        <v>128.57857999999999</v>
+      </c>
+      <c r="AH33" s="12">
+        <f>AVERAGE(AH28:AH32)</f>
+        <v>52.787400000000005</v>
+      </c>
+      <c r="AI33" s="12">
+        <f>AVERAGE(AI28:AI32)</f>
+        <v>75.625339999999994</v>
+      </c>
+      <c r="AJ33" s="12">
+        <f>AVERAGE(AJ28:AJ32)</f>
+        <v>0.16400566</v>
       </c>
     </row>
-    <row r="34" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="M34" s="15"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="17"/>
+    <row r="34" spans="12:36" x14ac:dyDescent="0.25">
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="16"/>
     </row>
-    <row r="35" spans="10:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35">
         <v>1000000000</v>
       </c>
-      <c r="O35" s="4"/>
-      <c r="P35" s="5"/>
+      <c r="P35" s="4"/>
       <c r="Q35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R35" s="34">
+      <c r="R35" s="31">
         <v>1000000442</v>
       </c>
-      <c r="S35" s="4"/>
-      <c r="T35" s="5"/>
+      <c r="T35" s="4"/>
       <c r="U35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V35" s="4">
+      <c r="V35">
         <v>1000000000</v>
       </c>
-      <c r="W35" s="4"/>
-      <c r="X35" s="5"/>
+      <c r="X35" s="4"/>
       <c r="Y35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Z35" s="4">
+      <c r="Z35">
         <v>1000000000</v>
       </c>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="5"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD35">
+        <v>1000000000</v>
+      </c>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH35">
+        <v>1000000000</v>
+      </c>
+      <c r="AJ35" s="4"/>
     </row>
-    <row r="36" spans="10:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36">
         <v>-3572.2</v>
       </c>
-      <c r="O36" s="4"/>
-      <c r="P36" s="5"/>
+      <c r="P36" s="4"/>
       <c r="Q36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R36" s="4">
+      <c r="R36">
         <v>-3433.20658114665</v>
       </c>
-      <c r="S36" s="4"/>
-      <c r="T36" s="5"/>
+      <c r="T36" s="4"/>
       <c r="U36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V36" s="4">
+      <c r="V36">
         <v>-3572.2</v>
       </c>
-      <c r="W36" s="4"/>
-      <c r="X36" s="5"/>
+      <c r="X36" s="4"/>
       <c r="Y36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z36" s="4">
+      <c r="Z36">
         <v>-3572.2</v>
       </c>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="5"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD36">
+        <v>-3572.2</v>
+      </c>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH36">
+        <v>-3572.2</v>
+      </c>
+      <c r="AJ36" s="4"/>
     </row>
-    <row r="37" spans="10:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37">
         <v>-6.1092199999999997</v>
       </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="5"/>
+      <c r="P37" s="4"/>
       <c r="Q37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R37" s="4">
+      <c r="R37">
         <v>-6.1092239473385597</v>
       </c>
-      <c r="S37" s="4"/>
-      <c r="T37" s="5"/>
+      <c r="T37" s="4"/>
       <c r="U37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V37" s="4">
+      <c r="V37">
         <v>-6.1092199999999997</v>
       </c>
-      <c r="W37" s="4"/>
-      <c r="X37" s="5"/>
+      <c r="X37" s="4"/>
       <c r="Y37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z37" s="4">
+      <c r="Z37">
         <v>-6.1092199999999997</v>
       </c>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="5"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD37">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH37">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="AJ37" s="4"/>
     </row>
-    <row r="38" spans="10:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38">
         <v>5.8726099999999999</v>
       </c>
-      <c r="O38" s="4"/>
-      <c r="P38" s="5"/>
+      <c r="P38" s="4"/>
       <c r="Q38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R38" s="4">
+      <c r="R38">
         <v>5.8726133539361802</v>
       </c>
-      <c r="S38" s="4"/>
-      <c r="T38" s="5"/>
+      <c r="T38" s="4"/>
       <c r="U38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V38" s="4">
+      <c r="V38">
         <v>5.8726099999999999</v>
       </c>
-      <c r="W38" s="4"/>
-      <c r="X38" s="5"/>
+      <c r="X38" s="4"/>
       <c r="Y38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Z38" s="4">
+      <c r="Z38">
         <v>5.8726099999999999</v>
       </c>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="5"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD38">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH38">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="AJ38" s="4"/>
     </row>
-    <row r="39" spans="10:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39">
         <v>1.0000500000000001</v>
       </c>
-      <c r="O39" s="4"/>
-      <c r="P39" s="5"/>
+      <c r="P39" s="4"/>
       <c r="Q39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R39" s="4">
+      <c r="R39">
         <v>1.0000515337792899</v>
       </c>
-      <c r="S39" s="4"/>
-      <c r="T39" s="5"/>
+      <c r="T39" s="4"/>
       <c r="U39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V39" s="4">
+      <c r="V39">
         <v>1.0000500000000001</v>
       </c>
-      <c r="W39" s="4"/>
-      <c r="X39" s="5"/>
+      <c r="X39" s="4"/>
       <c r="Y39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z39" s="4">
+      <c r="Z39">
         <v>1.0000500000000001</v>
       </c>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="5"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD39">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH39">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="AJ39" s="4"/>
     </row>
-    <row r="40" spans="10:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N40" s="18">
+      <c r="N40" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="5"/>
+      <c r="P40" s="4"/>
       <c r="Q40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R40" s="18">
+      <c r="R40" s="1">
         <v>-3.4332050636700101E-6</v>
       </c>
-      <c r="S40" s="4"/>
-      <c r="T40" s="5"/>
+      <c r="T40" s="4"/>
       <c r="U40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V40" s="18">
+      <c r="V40" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
-      <c r="W40" s="4"/>
-      <c r="X40" s="5"/>
+      <c r="X40" s="4"/>
       <c r="Y40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z40" s="18">
+      <c r="Z40" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="5"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="AJ40" s="4"/>
     </row>
-    <row r="41" spans="10:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N41" s="4" t="b">
+      <c r="N41" t="b">
         <v>1</v>
       </c>
-      <c r="O41" s="4"/>
-      <c r="P41" s="5"/>
+      <c r="P41" s="4"/>
       <c r="Q41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="5"/>
+      <c r="T41" s="4"/>
       <c r="U41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V41" s="4" t="b">
+      <c r="V41" t="b">
         <v>1</v>
       </c>
-      <c r="W41" s="4"/>
-      <c r="X41" s="5"/>
+      <c r="X41" s="4"/>
       <c r="Y41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z41" s="4" t="b">
+      <c r="Z41" t="b">
         <v>1</v>
       </c>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="5"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="4"/>
     </row>
-    <row r="42" spans="10:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M42" s="3"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="5"/>
+      <c r="P42" s="4"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="5"/>
+      <c r="T42" s="4"/>
       <c r="U42" s="3"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="5"/>
+      <c r="X42" s="4"/>
       <c r="Y42" s="3"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="5"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="3"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="3"/>
+      <c r="AJ42" s="4"/>
     </row>
-    <row r="43" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="M43" s="19" t="s">
+    <row r="43" spans="12:36" x14ac:dyDescent="0.25">
+      <c r="M43" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N43" s="20" t="s">
+      <c r="N43" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O43" s="20" t="s">
+      <c r="O43" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="P43" s="21" t="s">
+      <c r="P43" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q43" s="19" t="s">
+      <c r="Q43" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R43" s="20" t="s">
+      <c r="R43" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S43" s="20" t="s">
+      <c r="S43" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="T43" s="21" t="s">
+      <c r="T43" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="U43" s="19" t="s">
+      <c r="U43" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="V43" s="20" t="s">
+      <c r="V43" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="W43" s="20" t="s">
+      <c r="W43" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X43" s="21" t="s">
+      <c r="X43" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Y43" s="19" t="s">
+      <c r="Y43" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Z43" s="20" t="s">
+      <c r="Z43" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AA43" s="20" t="s">
+      <c r="AA43" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AB43" s="21" t="s">
+      <c r="AB43" s="19" t="s">
         <v>18</v>
       </c>
+      <c r="AC43" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD43" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE43" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG43" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH43" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI43" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ43" s="19" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="44" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="M44" s="6">
+    <row r="44" spans="12:36" x14ac:dyDescent="0.25">
+      <c r="M44" s="5">
         <v>1.1281399999999999</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="6">
         <v>1.69685</v>
       </c>
-      <c r="O44" s="24" t="s">
+      <c r="O44" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="7">
         <v>0.489311</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="Q44" s="5">
         <v>1.05559</v>
       </c>
-      <c r="R44" s="7">
+      <c r="R44" s="6">
         <v>1.6347499999999999</v>
       </c>
-      <c r="S44" s="24" t="s">
+      <c r="S44" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="T44" s="8">
+      <c r="T44" s="7">
         <v>0.446685</v>
       </c>
-      <c r="U44" s="6">
+      <c r="U44" s="5">
         <v>1.07643</v>
       </c>
-      <c r="V44" s="7">
+      <c r="V44" s="6">
         <v>1.65564</v>
       </c>
-      <c r="W44" s="24" t="s">
+      <c r="W44" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="X44" s="8">
+      <c r="X44" s="7">
         <v>0.46757399999999999</v>
       </c>
-      <c r="Y44" s="6">
+      <c r="Y44" s="5">
         <v>1.70692</v>
       </c>
-      <c r="Z44" s="7">
+      <c r="Z44" s="6">
         <v>2.2859600000000002</v>
       </c>
-      <c r="AA44" s="24" t="s">
+      <c r="AA44" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AB44" s="8">
+      <c r="AB44" s="7">
         <v>1.09789</v>
       </c>
+      <c r="AC44" s="5">
+        <v>0.27474599999999999</v>
+      </c>
+      <c r="AD44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE44" s="22">
+        <v>1.24631</v>
+      </c>
+      <c r="AF44" s="7">
+        <v>1.13198</v>
+      </c>
+      <c r="AG44" s="5">
+        <v>0.27474599999999999</v>
+      </c>
+      <c r="AH44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI44" s="22">
+        <v>1.24631</v>
+      </c>
+      <c r="AJ44" s="7">
+        <v>1.13198</v>
+      </c>
     </row>
-    <row r="46" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="4"/>
+    <row r="46" spans="12:36" x14ac:dyDescent="0.25">
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
     </row>
-    <row r="47" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
+    <row r="47" spans="12:36" x14ac:dyDescent="0.25">
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
     </row>
-    <row r="48" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
+    <row r="48" spans="12:36" x14ac:dyDescent="0.25">
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
     </row>
     <row r="49" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="S49" s="31"/>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
+      <c r="S49" s="28"/>
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="H55" s="58" t="s">
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="H55" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C56" s="32" t="str">
+      <c r="C56" s="29" t="str">
         <f>H56</f>
         <v>Sequential</v>
       </c>
-      <c r="D56" s="32" t="str">
+      <c r="D56" s="29" t="str">
         <f>I56</f>
         <v>Parallel - TBB</v>
       </c>
-      <c r="E56" s="32" t="str">
+      <c r="E56" s="29" t="str">
         <f>J56</f>
         <v>Parallel - SMP (opt)</v>
       </c>
-      <c r="F56" s="32" t="str">
+      <c r="F56" s="29" t="str">
         <f>K56</f>
         <v>Parallel - ALL</v>
       </c>
-      <c r="H56" s="32" t="str">
+      <c r="H56" s="29" t="str">
         <f>M26</f>
         <v>Sequential</v>
       </c>
-      <c r="I56" s="32" t="str">
+      <c r="I56" s="29" t="str">
         <f>Q26</f>
         <v>Parallel - TBB</v>
       </c>
-      <c r="J56" s="32" t="str">
+      <c r="J56" s="29" t="str">
         <f>U26</f>
         <v>Parallel - SMP (opt)</v>
       </c>
-      <c r="K56" s="32" t="str">
+      <c r="K56" s="29" t="str">
         <f>Y26</f>
         <v>Parallel - ALL</v>
       </c>
@@ -4707,7 +5278,7 @@
       </c>
       <c r="F57">
         <f>Y11</f>
-        <v>52.21078</v>
+        <v>74.38794</v>
       </c>
       <c r="H57">
         <f>M33</f>
@@ -4723,34 +5294,93 @@
       </c>
       <c r="K57">
         <f>Y33</f>
-        <v>75.817779999999985</v>
+        <v>158.84381999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="M25:AB25"/>
     <mergeCell ref="M26:P26"/>
     <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AB26"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="M4:P4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="M3:AB3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="M3:AJ3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="M25:AJ25"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="Y26:AB26"/>
   </mergeCells>
   <conditionalFormatting sqref="V13 N13 R13 Z13">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8 C5 C11">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8 F5 F11">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13 N13 V13 Z13">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="53">
+      <formula>$N13&lt;&gt;$R13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4760,27 +5390,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R35">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="N35">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5 C8 C11">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="expression" dxfId="6" priority="25">
+      <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F8 F11">
+  <conditionalFormatting sqref="V35">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -4790,8 +5415,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13 N13 V13 Z13">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="V35">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="22">
+      <formula>$N35&lt;&gt;$R35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z35">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z35">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="19">
+      <formula>$N35&lt;&gt;$R35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35 N35 V35 Z35">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4801,12 +5466,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="39">
-      <formula>$N13&lt;&gt;$R13</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="AD13">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4815,23 +5477,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="AD13">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
-      <formula>$N35&lt;&gt;$R35</formula>
+    <cfRule type="expression" dxfId="3" priority="14">
+      <formula>$N13&lt;&gt;$R13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V35">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4840,23 +5502,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V35">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>$N35&lt;&gt;$R35</formula>
+    <cfRule type="expression" dxfId="2" priority="11">
+      <formula>$N13&lt;&gt;$R13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z35">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="AD35">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4865,23 +5527,60 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z35">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="AD35">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>$N35&lt;&gt;$R35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35 R35 V35 Z35">
+  <conditionalFormatting sqref="R13 N13 V13 Z13 AD13 AH13">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35 R35 V35 Z35 AD35 AH35">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/doc/graphs.xlsx
+++ b/doc/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\ZCU\5.semestr\PPR\kiv-ppr\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7CA493-CC2F-4D93-966A-05821FBF1EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374E0278-AAD7-4913-B988-269FDFCDA1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99913033-C086-4C4E-9256-FEA28C5FF52C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99913033-C086-4C4E-9256-FEA28C5FF52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="32">
   <si>
     <t>Total</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Parallel - ALL</t>
-  </si>
-  <si>
-    <t>Speedup</t>
   </si>
   <si>
     <t>Parallel - SMP (opt)</t>
@@ -101,9 +98,6 @@
     <t>inf</t>
   </si>
   <si>
-    <t>Gauss - 7 GB</t>
-  </si>
-  <si>
     <t>Gauss - 1GB Chart data</t>
   </si>
   <si>
@@ -129,6 +123,15 @@
   </si>
   <si>
     <t>"Intel(R) UHD Graphics 620"</t>
+  </si>
+  <si>
+    <t>Gauss - 7 GB - Speedup</t>
+  </si>
+  <si>
+    <t>SMP - TBB</t>
+  </si>
+  <si>
+    <t>SMP - Vectorized</t>
   </si>
 </sst>
 </file>
@@ -385,16 +388,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -407,45 +418,149 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -665,30 +780,36 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$H$56:$K$56</c:f>
+              <c:f>Sheet3!$N$67:$S$67</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Sequential</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Parallel - TBB</c:v>
+                  <c:v>SMP - TBB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Parallel - SMP (opt)</c:v>
+                  <c:v>SMP - Vectorized</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Parallel - ALL</c:v>
+                  <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>"NVIDIA GeForce MX150"</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>"Intel(R) UHD Graphics 620"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$H$57:$K$57</c:f>
+              <c:f>Sheet3!$N$68:$S$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>57.064480000000003</c:v>
                 </c:pt>
@@ -700,6 +821,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>158.84381999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.79016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.57857999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,30 +1220,36 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$C$56:$F$56</c:f>
+              <c:f>Sheet3!$C$67:$H$67</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Sequential</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Parallel - TBB</c:v>
+                  <c:v>SMP - TBB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Parallel - SMP (opt)</c:v>
+                  <c:v>SMP - Vectorized</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Parallel - ALL</c:v>
+                  <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>"NVIDIA GeForce MX150"</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>"Intel(R) UHD Graphics 620"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$57:$F$57</c:f>
+              <c:f>Sheet3!$C$68:$H$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13.4421</c:v>
                 </c:pt>
@@ -1128,6 +1261,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>74.38794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.8337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.404019999999988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2464,16 +2603,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>579063</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26612</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>267540</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>170048</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112898</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2500,16 +2639,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>579624</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>3641</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27172</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>79841</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>22691</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2834,10 +2973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078017B5-66FF-40D9-BAD6-9D97405F26B6}">
-  <dimension ref="B2:AJ57"/>
+  <dimension ref="A2:AJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4:AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,26 +3003,24 @@
     <col min="34" max="34" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
       <c r="B3" s="46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" s="47"/>
-      <c r="E3" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="50"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="44"/>
       <c r="M3" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N3" s="43"/>
       <c r="O3" s="43"/>
@@ -2909,15 +3046,18 @@
       <c r="AI3" s="43"/>
       <c r="AJ3" s="43"/>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="44"/>
-      <c r="E4" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="45"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="44"/>
       <c r="M4" s="40" t="s">
         <v>4</v>
       </c>
@@ -2925,51 +3065,50 @@
       <c r="O4" s="41"/>
       <c r="P4" s="42"/>
       <c r="Q4" s="40" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="R4" s="41"/>
       <c r="S4" s="41"/>
       <c r="T4" s="42"/>
       <c r="U4" s="40" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="V4" s="41"/>
       <c r="W4" s="41"/>
       <c r="X4" s="42"/>
       <c r="Y4" s="40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z4" s="41"/>
       <c r="AA4" s="41"/>
       <c r="AB4" s="42"/>
       <c r="AC4" s="40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AD4" s="41"/>
       <c r="AE4" s="41"/>
       <c r="AF4" s="42"/>
       <c r="AG4" s="40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AH4" s="41"/>
       <c r="AI4" s="41"/>
       <c r="AJ4" s="42"/>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="33">
-        <f>$M$11/Y11-1</f>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="31">
         <v>-0.81929732158196611</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="34">
-        <f>$M$33/Y33-1</f>
+      <c r="F5" s="32">
         <v>-0.64075102197869582</v>
       </c>
+      <c r="G5" s="44"/>
       <c r="M5" s="8" t="s">
         <v>0</v>
       </c>
@@ -3043,9 +3182,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="F6" s="4"/>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="31">
+        <v>0.40228653835802053</v>
+      </c>
+      <c r="F6" s="32">
+        <v>-0.50144681775142619</v>
+      </c>
+      <c r="G6" s="44"/>
       <c r="L6">
         <v>1</v>
       </c>
@@ -3094,7 +3244,7 @@
       <c r="AA6" s="24">
         <v>60.295699999999997</v>
       </c>
-      <c r="AB6" s="39">
+      <c r="AB6" s="35">
         <v>2.6929999999999999E-4</v>
       </c>
       <c r="AC6" s="24">
@@ -3106,7 +3256,7 @@
       <c r="AE6" s="24">
         <v>42.279200000000003</v>
       </c>
-      <c r="AF6" s="39">
+      <c r="AF6" s="35">
         <v>2.0120000000000001E-4</v>
       </c>
       <c r="AG6" s="24">
@@ -3118,19 +3268,24 @@
       <c r="AI6" s="24">
         <v>87.633499999999998</v>
       </c>
-      <c r="AJ6" s="39">
+      <c r="AJ6" s="35">
         <v>0.34370499999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="E7" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="45"/>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="31">
+        <v>0.51997195728008228</v>
+      </c>
+      <c r="F7" s="32">
+        <v>-0.26745009719067481</v>
+      </c>
+      <c r="G7" s="44"/>
       <c r="L7">
         <v>2</v>
       </c>
@@ -3207,21 +3362,20 @@
         <v>2.098E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="33">
-        <f>$M$11/Q11-1</f>
-        <v>0.40228653835802053</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="34">
-        <f>$M$33/Q33-1</f>
-        <v>-0.50144681775142619</v>
-      </c>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="31">
+        <v>-0.76348363734896729</v>
+      </c>
+      <c r="F8" s="32">
+        <v>-0.25687770412250732</v>
+      </c>
+      <c r="G8" s="44"/>
       <c r="L8">
         <v>3</v>
       </c>
@@ -3298,9 +3452,21 @@
         <v>1.5750000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="F9" s="4"/>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="33">
+        <v>-0.85293754038389125</v>
+      </c>
+      <c r="F9" s="34">
+        <v>-0.55618984126282922</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="I9" s="44"/>
       <c r="L9">
         <v>4</v>
       </c>
@@ -3377,15 +3543,14 @@
         <v>1.0199E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
-        <v>7</v>
-      </c>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="44"/>
-      <c r="E10" s="44" t="s">
-        <v>7</v>
-      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="45"/>
+      <c r="G10" s="44"/>
       <c r="L10" s="4">
         <v>5</v>
       </c>
@@ -3462,22 +3627,14 @@
         <v>1.9998200000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="36">
-        <f>$M$11/U11-1</f>
-        <v>0.51997195728008228</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="38">
-        <f>($M$33/U33)-1</f>
-        <v>-0.26745009719067481</v>
-      </c>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
       <c r="L11" s="4"/>
       <c r="M11" s="11">
         <f>AVERAGE(M6:M10)</f>
@@ -3576,7 +3733,14 @@
         <v>7.3018079999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
@@ -3602,315 +3766,360 @@
       <c r="AI12" s="15"/>
       <c r="AJ12" s="16"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="44"/>
       <c r="M13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>1000000000</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" s="31">
+        <v>7</v>
+      </c>
+      <c r="R13" s="30">
         <v>1000000497</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V13">
         <v>1000000000</v>
       </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z13">
         <v>1000000000</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD13">
         <v>1000000000</v>
       </c>
       <c r="AF13" s="4"/>
       <c r="AG13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH13">
         <v>1000000000</v>
       </c>
       <c r="AJ13" s="4"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="M14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>-3572.2</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R14">
         <v>-3391.81</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V14">
         <v>-3572.2</v>
       </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z14">
         <v>-3572.2</v>
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD14">
         <v>-3572.2</v>
       </c>
       <c r="AF14" s="4"/>
       <c r="AG14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH14">
         <v>-3572.2</v>
       </c>
       <c r="AJ14" s="4"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="M15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <v>-6.1092199999999997</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R15">
         <v>-6.1092199999999997</v>
       </c>
       <c r="T15" s="4"/>
       <c r="U15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V15">
         <v>-6.1092199999999997</v>
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z15">
         <v>-6.1092199999999997</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD15">
         <v>-6.1092199999999997</v>
       </c>
       <c r="AF15" s="4"/>
       <c r="AG15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH15">
         <v>-6.1092199999999997</v>
       </c>
       <c r="AJ15" s="4"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
       <c r="M16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>5.8726099999999999</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R16">
         <v>5.8726099999999999</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V16">
         <v>5.8726099999999999</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z16">
         <v>5.8726099999999999</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD16">
         <v>5.8726099999999999</v>
       </c>
       <c r="AF16" s="4"/>
       <c r="AG16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH16">
         <v>5.8726099999999999</v>
       </c>
       <c r="AJ16" s="4"/>
     </row>
-    <row r="17" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
       <c r="M17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N17">
         <v>1.0000500000000001</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R17">
         <v>1.00019171135208</v>
       </c>
       <c r="T17" s="4"/>
       <c r="U17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V17">
         <v>1.0000500000000001</v>
       </c>
       <c r="X17" s="4"/>
       <c r="Y17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z17">
         <v>1.0000500000000001</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD17">
         <v>1.0000500000000001</v>
       </c>
       <c r="AF17" s="4"/>
       <c r="AG17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH17">
         <v>1.0000500000000001</v>
       </c>
       <c r="AJ17" s="4"/>
     </row>
-    <row r="18" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="M18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N18" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R18" s="1">
         <v>-3.3918100000000001E-6</v>
       </c>
       <c r="T18" s="4"/>
       <c r="U18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V18" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
       <c r="X18" s="4"/>
       <c r="Y18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z18" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD18" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
       <c r="AF18" s="4"/>
       <c r="AG18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH18" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
       <c r="AJ18" s="4"/>
     </row>
-    <row r="19" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
       <c r="M19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R19" t="b">
         <v>1</v>
       </c>
       <c r="T19" s="4"/>
       <c r="U19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V19" t="b">
         <v>1</v>
       </c>
       <c r="X19" s="4"/>
       <c r="Y19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="b">
         <v>1</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="b">
         <v>1</v>
       </c>
       <c r="AF19" s="4"/>
       <c r="AG19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="b">
         <v>1</v>
       </c>
       <c r="AJ19" s="4"/>
     </row>
-    <row r="20" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="M20" s="3"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="3"/>
@@ -3924,81 +4133,81 @@
       <c r="AG20" s="3"/>
       <c r="AJ20" s="4"/>
     </row>
-    <row r="21" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="M21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="O21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="P21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="P21" s="19" t="s">
-        <v>18</v>
-      </c>
       <c r="Q21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R21" s="18" t="s">
+      <c r="S21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="18" t="s">
+      <c r="T21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T21" s="19" t="s">
-        <v>18</v>
-      </c>
       <c r="U21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="V21" s="18" t="s">
+      <c r="W21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="W21" s="18" t="s">
+      <c r="X21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X21" s="19" t="s">
-        <v>18</v>
-      </c>
       <c r="Y21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z21" s="18" t="s">
+      <c r="AA21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AA21" s="18" t="s">
+      <c r="AB21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AB21" s="19" t="s">
-        <v>18</v>
-      </c>
       <c r="AC21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AD21" s="18" t="s">
+      <c r="AE21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AE21" s="18" t="s">
+      <c r="AF21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AF21" s="19" t="s">
-        <v>18</v>
-      </c>
       <c r="AG21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AH21" s="18" t="s">
+      <c r="AI21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AI21" s="18" t="s">
+      <c r="AJ21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AJ21" s="19" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="22" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="M22" s="5">
         <v>1.1281399999999999</v>
       </c>
@@ -4006,7 +4215,7 @@
         <v>1.69685</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P22" s="7">
         <v>0.489311</v>
@@ -4018,7 +4227,7 @@
         <v>1.6347499999999999</v>
       </c>
       <c r="S22" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T22" s="7">
         <v>0.446685</v>
@@ -4030,7 +4239,7 @@
         <v>1.65564</v>
       </c>
       <c r="W22" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X22" s="7">
         <v>0.46757399999999999</v>
@@ -4039,7 +4248,7 @@
         <v>0.27474599999999999</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA22" s="22">
         <v>1.24631</v>
@@ -4051,7 +4260,7 @@
         <v>0.27474599999999999</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE22" s="22">
         <v>1.24631</v>
@@ -4063,7 +4272,7 @@
         <v>0.27474599999999999</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI22" s="22">
         <v>1.24631</v>
@@ -4072,12 +4281,12 @@
         <v>1.13198</v>
       </c>
     </row>
-    <row r="23" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="S23" s="1"/>
     </row>
-    <row r="25" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="M25" s="43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N25" s="43"/>
       <c r="O25" s="43"/>
@@ -4103,45 +4312,45 @@
       <c r="AI25" s="43"/>
       <c r="AJ25" s="43"/>
     </row>
-    <row r="26" spans="6:36" x14ac:dyDescent="0.25">
-      <c r="M26" s="52" t="s">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="M26" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="39"/>
       <c r="Q26" s="40" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="R26" s="41"/>
       <c r="S26" s="41"/>
       <c r="T26" s="42"/>
       <c r="U26" s="40" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="V26" s="41"/>
       <c r="W26" s="41"/>
       <c r="X26" s="42"/>
       <c r="Y26" s="40" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="Z26" s="41"/>
       <c r="AA26" s="41"/>
       <c r="AB26" s="42"/>
       <c r="AC26" s="40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AD26" s="41"/>
       <c r="AE26" s="41"/>
       <c r="AF26" s="42"/>
       <c r="AG26" s="40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AH26" s="41"/>
       <c r="AI26" s="41"/>
       <c r="AJ26" s="42"/>
     </row>
-    <row r="27" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -4219,7 +4428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L28">
         <v>1</v>
       </c>
@@ -4280,7 +4489,7 @@
       <c r="AE28" s="24">
         <v>42.304400000000001</v>
       </c>
-      <c r="AF28" s="39">
+      <c r="AF28" s="35">
         <v>0.13605100000000001</v>
       </c>
       <c r="AG28" s="24">
@@ -4292,11 +4501,11 @@
       <c r="AI28" s="24">
         <v>136.64599999999999</v>
       </c>
-      <c r="AJ28" s="39">
+      <c r="AJ28" s="35">
         <v>0.119835</v>
       </c>
     </row>
-    <row r="29" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>2</v>
       </c>
@@ -4373,7 +4582,7 @@
         <v>0.34987000000000001</v>
       </c>
     </row>
-    <row r="30" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L30">
         <v>3</v>
       </c>
@@ -4450,7 +4659,7 @@
         <v>0.34947</v>
       </c>
     </row>
-    <row r="31" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L31">
         <v>4</v>
       </c>
@@ -4527,7 +4736,7 @@
         <v>6.5799999999999995E-4</v>
       </c>
     </row>
-    <row r="32" spans="6:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L32">
         <v>5</v>
       </c>
@@ -4731,42 +4940,42 @@
     </row>
     <row r="35" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N35">
         <v>1000000000</v>
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R35" s="31">
+        <v>7</v>
+      </c>
+      <c r="R35" s="30">
         <v>1000000442</v>
       </c>
       <c r="T35" s="4"/>
       <c r="U35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V35">
         <v>1000000000</v>
       </c>
       <c r="X35" s="4"/>
       <c r="Y35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z35">
         <v>1000000000</v>
       </c>
       <c r="AB35" s="4"/>
       <c r="AC35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD35">
         <v>1000000000</v>
       </c>
       <c r="AF35" s="4"/>
       <c r="AG35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH35">
         <v>1000000000</v>
@@ -4775,42 +4984,42 @@
     </row>
     <row r="36" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N36">
         <v>-3572.2</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R36">
         <v>-3433.20658114665</v>
       </c>
       <c r="T36" s="4"/>
       <c r="U36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V36">
         <v>-3572.2</v>
       </c>
       <c r="X36" s="4"/>
       <c r="Y36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z36">
         <v>-3572.2</v>
       </c>
       <c r="AB36" s="4"/>
       <c r="AC36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD36">
         <v>-3572.2</v>
       </c>
       <c r="AF36" s="4"/>
       <c r="AG36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH36">
         <v>-3572.2</v>
@@ -4819,42 +5028,42 @@
     </row>
     <row r="37" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N37">
         <v>-6.1092199999999997</v>
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R37">
         <v>-6.1092239473385597</v>
       </c>
       <c r="T37" s="4"/>
       <c r="U37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V37">
         <v>-6.1092199999999997</v>
       </c>
       <c r="X37" s="4"/>
       <c r="Y37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z37">
         <v>-6.1092199999999997</v>
       </c>
       <c r="AB37" s="4"/>
       <c r="AC37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD37">
         <v>-6.1092199999999997</v>
       </c>
       <c r="AF37" s="4"/>
       <c r="AG37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH37">
         <v>-6.1092199999999997</v>
@@ -4863,42 +5072,42 @@
     </row>
     <row r="38" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N38">
         <v>5.8726099999999999</v>
       </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R38">
         <v>5.8726133539361802</v>
       </c>
       <c r="T38" s="4"/>
       <c r="U38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V38">
         <v>5.8726099999999999</v>
       </c>
       <c r="X38" s="4"/>
       <c r="Y38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z38">
         <v>5.8726099999999999</v>
       </c>
       <c r="AB38" s="4"/>
       <c r="AC38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD38">
         <v>5.8726099999999999</v>
       </c>
       <c r="AF38" s="4"/>
       <c r="AG38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH38">
         <v>5.8726099999999999</v>
@@ -4907,42 +5116,42 @@
     </row>
     <row r="39" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N39">
         <v>1.0000500000000001</v>
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R39">
         <v>1.0000515337792899</v>
       </c>
       <c r="T39" s="4"/>
       <c r="U39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V39">
         <v>1.0000500000000001</v>
       </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z39">
         <v>1.0000500000000001</v>
       </c>
       <c r="AB39" s="4"/>
       <c r="AC39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD39">
         <v>1.0000500000000001</v>
       </c>
       <c r="AF39" s="4"/>
       <c r="AG39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH39">
         <v>1.0000500000000001</v>
@@ -4951,42 +5160,42 @@
     </row>
     <row r="40" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N40" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R40" s="1">
         <v>-3.4332050636700101E-6</v>
       </c>
       <c r="T40" s="4"/>
       <c r="U40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V40" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
       <c r="X40" s="4"/>
       <c r="Y40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z40" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
       <c r="AB40" s="4"/>
       <c r="AC40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD40" s="1">
         <v>-3.5721999999999999E-6</v>
       </c>
       <c r="AF40" s="4"/>
       <c r="AG40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH40" s="1">
         <v>-3.5721999999999999E-6</v>
@@ -4995,39 +5204,39 @@
     </row>
     <row r="41" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N41" t="b">
         <v>1</v>
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T41" s="4"/>
       <c r="U41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V41" t="b">
         <v>1</v>
       </c>
       <c r="X41" s="4"/>
       <c r="Y41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z41" t="b">
         <v>1</v>
       </c>
       <c r="AB41" s="4"/>
       <c r="AC41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD41" t="b">
         <v>1</v>
       </c>
       <c r="AF41" s="4"/>
       <c r="AG41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="b">
         <v>1</v>
@@ -5050,76 +5259,76 @@
     </row>
     <row r="43" spans="12:36" x14ac:dyDescent="0.25">
       <c r="M43" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N43" s="18" t="s">
+      <c r="O43" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O43" s="18" t="s">
+      <c r="P43" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="P43" s="19" t="s">
-        <v>18</v>
-      </c>
       <c r="Q43" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R43" s="18" t="s">
+      <c r="S43" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S43" s="18" t="s">
+      <c r="T43" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T43" s="19" t="s">
-        <v>18</v>
-      </c>
       <c r="U43" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V43" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="V43" s="18" t="s">
+      <c r="W43" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="W43" s="18" t="s">
+      <c r="X43" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X43" s="19" t="s">
-        <v>18</v>
-      </c>
       <c r="Y43" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z43" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z43" s="18" t="s">
+      <c r="AA43" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AA43" s="18" t="s">
+      <c r="AB43" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AB43" s="19" t="s">
-        <v>18</v>
-      </c>
       <c r="AC43" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD43" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AD43" s="18" t="s">
+      <c r="AE43" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AE43" s="18" t="s">
+      <c r="AF43" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AF43" s="19" t="s">
-        <v>18</v>
-      </c>
       <c r="AG43" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH43" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AH43" s="18" t="s">
+      <c r="AI43" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AI43" s="18" t="s">
+      <c r="AJ43" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="AJ43" s="19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="44" spans="12:36" x14ac:dyDescent="0.25">
@@ -5130,7 +5339,7 @@
         <v>1.69685</v>
       </c>
       <c r="O44" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P44" s="7">
         <v>0.489311</v>
@@ -5142,7 +5351,7 @@
         <v>1.6347499999999999</v>
       </c>
       <c r="S44" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T44" s="7">
         <v>0.446685</v>
@@ -5154,7 +5363,7 @@
         <v>1.65564</v>
       </c>
       <c r="W44" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X44" s="7">
         <v>0.46757399999999999</v>
@@ -5166,7 +5375,7 @@
         <v>2.2859600000000002</v>
       </c>
       <c r="AA44" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB44" s="7">
         <v>1.09789</v>
@@ -5175,7 +5384,7 @@
         <v>0.27474599999999999</v>
       </c>
       <c r="AD44" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE44" s="22">
         <v>1.24631</v>
@@ -5187,7 +5396,7 @@
         <v>0.27474599999999999</v>
       </c>
       <c r="AH44" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI44" s="22">
         <v>1.24631</v>
@@ -5214,119 +5423,148 @@
       <c r="R48" s="28"/>
       <c r="S48" s="28"/>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S49" s="28"/>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C55" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="H55" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
+    <row r="66" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="N66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
     </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C56" s="29" t="str">
-        <f>H56</f>
+    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C67" s="29" t="str">
+        <f>N67</f>
         <v>Sequential</v>
       </c>
-      <c r="D56" s="29" t="str">
-        <f>I56</f>
-        <v>Parallel - TBB</v>
-      </c>
-      <c r="E56" s="29" t="str">
-        <f>J56</f>
-        <v>Parallel - SMP (opt)</v>
-      </c>
-      <c r="F56" s="29" t="str">
-        <f>K56</f>
-        <v>Parallel - ALL</v>
-      </c>
-      <c r="H56" s="29" t="str">
+      <c r="D67" s="29" t="str">
+        <f>O67</f>
+        <v>SMP - TBB</v>
+      </c>
+      <c r="E67" s="29" t="str">
+        <f>P67</f>
+        <v>SMP - Vectorized</v>
+      </c>
+      <c r="F67" s="29" t="str">
+        <f>Q67</f>
+        <v>ALL</v>
+      </c>
+      <c r="G67" s="29" t="str">
+        <f>AC4</f>
+        <v>"NVIDIA GeForce MX150"</v>
+      </c>
+      <c r="H67" s="29" t="str">
+        <f>AG4</f>
+        <v>"Intel(R) UHD Graphics 620"</v>
+      </c>
+      <c r="N67" s="29" t="str">
         <f>M26</f>
         <v>Sequential</v>
       </c>
-      <c r="I56" s="29" t="str">
+      <c r="O67" s="29" t="str">
         <f>Q26</f>
-        <v>Parallel - TBB</v>
-      </c>
-      <c r="J56" s="29" t="str">
+        <v>SMP - TBB</v>
+      </c>
+      <c r="P67" s="29" t="str">
         <f>U26</f>
-        <v>Parallel - SMP (opt)</v>
-      </c>
-      <c r="K56" s="29" t="str">
+        <v>SMP - Vectorized</v>
+      </c>
+      <c r="Q67" s="29" t="str">
         <f>Y26</f>
-        <v>Parallel - ALL</v>
+        <v>ALL</v>
+      </c>
+      <c r="R67" s="29" t="str">
+        <f>AC26</f>
+        <v>"NVIDIA GeForce MX150"</v>
+      </c>
+      <c r="S67" s="29" t="str">
+        <f>AG26</f>
+        <v>"Intel(R) UHD Graphics 620"</v>
       </c>
     </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C57">
+    <row r="68" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C68">
         <f>M11</f>
         <v>13.4421</v>
       </c>
-      <c r="D57">
+      <c r="D68">
         <f>Q11</f>
         <v>9.5858439999999998</v>
       </c>
-      <c r="E57">
+      <c r="E68">
         <f>U11</f>
         <v>8.8436500000000002</v>
       </c>
-      <c r="F57">
+      <c r="F68">
         <f>Y11</f>
         <v>74.38794</v>
       </c>
-      <c r="H57">
+      <c r="G68">
+        <f>AC11</f>
+        <v>56.8337</v>
+      </c>
+      <c r="H68">
+        <f>AG11</f>
+        <v>91.404019999999988</v>
+      </c>
+      <c r="N68">
         <f>M33</f>
         <v>57.064480000000003</v>
       </c>
-      <c r="I57">
+      <c r="O68">
         <f>Q33</f>
         <v>114.460166</v>
       </c>
-      <c r="J57">
+      <c r="P68">
         <f>U33</f>
         <v>77.898420000000016</v>
       </c>
-      <c r="K57">
+      <c r="Q68">
         <f>Y33</f>
         <v>158.84381999999999</v>
       </c>
+      <c r="R68">
+        <f>AC33</f>
+        <v>76.79016</v>
+      </c>
+      <c r="S68">
+        <f>AG33</f>
+        <v>128.57857999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="M3:AJ3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="AC26:AF26"/>
+  <mergeCells count="22">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="AG26:AJ26"/>
     <mergeCell ref="M25:AJ25"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="U26:X26"/>
     <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="M3:AJ3"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:T26"/>
   </mergeCells>
   <conditionalFormatting sqref="V13 N13 R13 Z13">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5336,6 +5574,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R35">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13 N13 V13 Z13">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="69">
+      <formula>$N13&lt;&gt;$R13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="41">
+      <formula>$N35&lt;&gt;$R35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V35">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -5345,53 +5633,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8 C5 C11">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8 F5 F11">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13 N13 V13 Z13">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="53">
-      <formula>$N13&lt;&gt;$R13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N35">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N35">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="V35">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5401,12 +5644,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="25">
+    <cfRule type="expression" dxfId="5" priority="38">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V35">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="Z35">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5415,8 +5658,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V35">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="Z35">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5426,37 +5669,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="22">
+    <cfRule type="expression" dxfId="4" priority="35">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z35">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z35">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="19">
-      <formula>$N35&lt;&gt;$R35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R35 N35 V35 Z35">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="N35 R35 V35 Z35">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5468,7 +5686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD13">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5478,7 +5696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD13">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5488,12 +5706,12 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>$N13&lt;&gt;$R13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH13">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5503,7 +5721,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH13">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5513,12 +5731,12 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>$N13&lt;&gt;$R13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD35">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5528,7 +5746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD35">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5538,12 +5756,12 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH35">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5553,7 +5771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH35">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5563,12 +5781,12 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13 N13 V13 Z13 AD13 AH13">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5580,7 +5798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35 R35 V35 Z35 AD35 AH35">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5591,6 +5809,174 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12 B18 B15">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18 D15 D12">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/doc/graphs.xlsx
+++ b/doc/graphs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\ZCU\5.semestr\PPR\kiv-ppr\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374E0278-AAD7-4913-B988-269FDFCDA1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D09B2-97CA-4DE9-9979-8BE5987DD061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99913033-C086-4C4E-9256-FEA28C5FF52C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{99913033-C086-4C4E-9256-FEA28C5FF52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="33">
   <si>
     <t>Total</t>
   </si>
@@ -132,6 +133,9 @@
   </si>
   <si>
     <t>SMP - Vectorized</t>
+  </si>
+  <si>
+    <t>Gauss - 16GB - SSD</t>
   </si>
 </sst>
 </file>
@@ -345,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -394,16 +398,27 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -418,128 +433,24 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -2965,7 +2876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2973,10 +2884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078017B5-66FF-40D9-BAD6-9D97405F26B6}">
-  <dimension ref="A2:AJ68"/>
+  <dimension ref="B3:AJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4:AJ4"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,112 +2914,98 @@
     <col min="34" max="34" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="M3" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="44"/>
-      <c r="M3" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="E4" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="47"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="44"/>
-      <c r="M4" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="42"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49" t="s">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="31">
         <v>-0.81929732158196611</v>
       </c>
       <c r="F5" s="32">
         <v>-0.64075102197869582</v>
       </c>
-      <c r="G5" s="44"/>
       <c r="M5" s="8" t="s">
         <v>0</v>
       </c>
@@ -3182,20 +3079,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="49" t="s">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="31">
         <v>0.40228653835802053</v>
       </c>
       <c r="F6" s="32">
         <v>-0.50144681775142619</v>
       </c>
-      <c r="G6" s="44"/>
       <c r="L6">
         <v>1</v>
       </c>
@@ -3272,20 +3167,18 @@
         <v>0.34370499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="31">
         <v>0.51997195728008228</v>
       </c>
       <c r="F7" s="32">
         <v>-0.26745009719067481</v>
       </c>
-      <c r="G7" s="44"/>
       <c r="L7">
         <v>2</v>
       </c>
@@ -3362,20 +3255,18 @@
         <v>2.098E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="49" t="s">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="31">
         <v>-0.76348363734896729</v>
       </c>
       <c r="F8" s="32">
         <v>-0.25687770412250732</v>
       </c>
-      <c r="G8" s="44"/>
       <c r="L8">
         <v>3</v>
       </c>
@@ -3452,21 +3343,18 @@
         <v>1.5750000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="51" t="s">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="33">
         <v>-0.85293754038389125</v>
       </c>
       <c r="F9" s="34">
         <v>-0.55618984126282922</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="I9" s="44"/>
       <c r="L9">
         <v>4</v>
       </c>
@@ -3543,14 +3431,8 @@
         <v>1.0199E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="44"/>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="F10" s="21"/>
       <c r="L10" s="4">
         <v>5</v>
       </c>
@@ -3627,14 +3509,7 @@
         <v>1.9998200000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L11" s="4"/>
       <c r="M11" s="11">
         <f>AVERAGE(M6:M10)</f>
@@ -3733,14 +3608,9 @@
         <v>7.3018079999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="31"/>
-      <c r="C12" s="44"/>
       <c r="D12" s="31"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
@@ -3766,14 +3636,8 @@
       <c r="AI12" s="15"/>
       <c r="AJ12" s="16"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="44"/>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="F13" s="21"/>
       <c r="M13" s="2" t="s">
         <v>7</v>
       </c>
@@ -3817,13 +3681,7 @@
       </c>
       <c r="AJ13" s="4"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M14" s="2" t="s">
         <v>8</v>
       </c>
@@ -3867,13 +3725,9 @@
       </c>
       <c r="AJ14" s="4"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
-      <c r="C15" s="44"/>
       <c r="D15" s="31"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
       <c r="M15" s="2" t="s">
         <v>9</v>
       </c>
@@ -3917,13 +3771,8 @@
       </c>
       <c r="AJ15" s="4"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="F16" s="21"/>
       <c r="M16" s="2" t="s">
         <v>10</v>
       </c>
@@ -3967,14 +3816,7 @@
       </c>
       <c r="AJ16" s="4"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M17" s="2" t="s">
         <v>11</v>
       </c>
@@ -4018,14 +3860,9 @@
       </c>
       <c r="AJ17" s="4"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
-      <c r="C18" s="44"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
       <c r="M18" s="2" t="s">
         <v>12</v>
       </c>
@@ -4069,13 +3906,7 @@
       </c>
       <c r="AJ18" s="4"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M19" s="2" t="s">
         <v>13</v>
       </c>
@@ -4119,7 +3950,7 @@
       </c>
       <c r="AJ19" s="4"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M20" s="3"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="3"/>
@@ -4133,7 +3964,7 @@
       <c r="AG20" s="3"/>
       <c r="AJ20" s="4"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M21" s="17" t="s">
         <v>14</v>
       </c>
@@ -4207,7 +4038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M22" s="5">
         <v>1.1281399999999999</v>
       </c>
@@ -4281,76 +4112,76 @@
         <v>1.13198</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="S23" s="1"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="M25" s="43" t="s">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="M25" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="43"/>
-      <c r="AJ25" s="43"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="M26" s="37" t="s">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="M26" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="40" t="s">
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="40" t="s">
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="40" t="s">
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="40" t="s">
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="40" t="s">
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="41"/>
-      <c r="AJ26" s="42"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="47"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -4428,7 +4259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L28">
         <v>1</v>
       </c>
@@ -4505,7 +4336,7 @@
         <v>0.119835</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>2</v>
       </c>
@@ -4582,7 +4413,7 @@
         <v>0.34987000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L30">
         <v>3</v>
       </c>
@@ -4659,7 +4490,7 @@
         <v>0.34947</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L31">
         <v>4</v>
       </c>
@@ -4736,7 +4567,7 @@
         <v>6.5799999999999995E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L32">
         <v>5</v>
       </c>
@@ -5427,16 +5258,16 @@
       <c r="S49" s="28"/>
     </row>
     <row r="66" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="N66" s="36" t="s">
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="N66" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
     </row>
     <row r="67" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C67" s="29" t="str">
@@ -5540,6 +5371,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="M3:AJ3"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:T26"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
@@ -5556,12 +5393,6 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="M3:AJ3"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:T26"/>
   </mergeCells>
   <conditionalFormatting sqref="V13 N13 R13 Z13">
     <cfRule type="colorScale" priority="53">
@@ -5594,7 +5425,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="69">
+    <cfRule type="expression" dxfId="10" priority="69">
       <formula>$N13&lt;&gt;$R13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5619,7 +5450,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="41">
+    <cfRule type="expression" dxfId="9" priority="41">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5644,7 +5475,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="38">
+    <cfRule type="expression" dxfId="8" priority="38">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5669,7 +5500,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="35">
+    <cfRule type="expression" dxfId="7" priority="35">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5706,7 +5537,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="6" priority="30">
       <formula>$N13&lt;&gt;$R13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5731,7 +5562,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="5" priority="27">
       <formula>$N13&lt;&gt;$R13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5756,7 +5587,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="4" priority="24">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5781,7 +5612,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="21">
+    <cfRule type="expression" dxfId="3" priority="21">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5965,7 +5796,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18 D15 D12">
+  <conditionalFormatting sqref="D15 D18 D12">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -5981,4 +5812,924 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64414967-48AB-4376-B86B-6073F9B0805A}">
+  <dimension ref="B2:U19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="47"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="23">
+        <v>22.201699999999999</v>
+      </c>
+      <c r="C5" s="24">
+        <v>19.446899999999999</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1.9697800000000001</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2.4600000000000002E-5</v>
+      </c>
+      <c r="F5" s="23">
+        <v>78.467299999999994</v>
+      </c>
+      <c r="G5" s="24">
+        <v>40.729300000000002</v>
+      </c>
+      <c r="H5" s="24">
+        <v>37.713700000000003</v>
+      </c>
+      <c r="I5" s="26">
+        <v>1.0052200000000001E-2</v>
+      </c>
+      <c r="J5" s="24">
+        <v>252.255</v>
+      </c>
+      <c r="K5" s="24">
+        <v>69.0839</v>
+      </c>
+      <c r="L5" s="24">
+        <v>182.81100000000001</v>
+      </c>
+      <c r="M5" s="35">
+        <v>1.51015E-2</v>
+      </c>
+      <c r="N5" s="24">
+        <v>71.3399</v>
+      </c>
+      <c r="O5" s="24">
+        <v>29.060400000000001</v>
+      </c>
+      <c r="P5" s="24">
+        <v>42.279200000000003</v>
+      </c>
+      <c r="Q5" s="35">
+        <v>2.0120000000000001E-4</v>
+      </c>
+      <c r="R5" s="24">
+        <v>130.49600000000001</v>
+      </c>
+      <c r="S5" s="24">
+        <v>42.5137</v>
+      </c>
+      <c r="T5" s="24">
+        <v>87.633499999999998</v>
+      </c>
+      <c r="U5" s="35">
+        <v>0.34370499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>11.2105</v>
+      </c>
+      <c r="C6">
+        <v>8.7071400000000008</v>
+      </c>
+      <c r="D6">
+        <v>1.7282900000000001</v>
+      </c>
+      <c r="E6" s="20">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>68.576599999999999</v>
+      </c>
+      <c r="G6">
+        <v>30.534500000000001</v>
+      </c>
+      <c r="H6">
+        <v>38.005099999999999</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2.3688000000000001E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>268.58999999999997</v>
+      </c>
+      <c r="K6">
+        <v>70.284000000000006</v>
+      </c>
+      <c r="L6">
+        <v>198.29400000000001</v>
+      </c>
+      <c r="M6" s="4">
+        <v>6.8742999999999999E-3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>47.948300000000003</v>
+      </c>
+      <c r="O6">
+        <v>22.022500000000001</v>
+      </c>
+      <c r="P6">
+        <v>44.294800000000002</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>66.3185</v>
+      </c>
+      <c r="R6" s="3">
+        <v>85.548100000000005</v>
+      </c>
+      <c r="S6">
+        <v>23.5456</v>
+      </c>
+      <c r="T6">
+        <v>62.002200000000002</v>
+      </c>
+      <c r="U6" s="4">
+        <v>2.098E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>11.237299999999999</v>
+      </c>
+      <c r="C7">
+        <v>8.7405399999999993</v>
+      </c>
+      <c r="D7">
+        <v>1.71983</v>
+      </c>
+      <c r="E7" s="20">
+        <v>2.3099999999999999E-5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>71.359800000000007</v>
+      </c>
+      <c r="G7">
+        <v>34.945999999999998</v>
+      </c>
+      <c r="H7">
+        <v>36.396799999999999</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6.7193000000000001E-3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>265.32600000000002</v>
+      </c>
+      <c r="K7">
+        <v>66.075800000000001</v>
+      </c>
+      <c r="L7">
+        <v>198.90799999999999</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.33377600000000002</v>
+      </c>
+      <c r="N7" s="3">
+        <v>53.833799999999997</v>
+      </c>
+      <c r="O7">
+        <v>7.8673999999999999</v>
+      </c>
+      <c r="P7">
+        <v>42.603900000000003</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>50.472299999999997</v>
+      </c>
+      <c r="R7" s="3">
+        <v>80.753500000000003</v>
+      </c>
+      <c r="S7">
+        <v>17.586400000000001</v>
+      </c>
+      <c r="T7">
+        <v>63.166600000000003</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1.5750000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
+        <f>AVERAGE(B5:B7)</f>
+        <v>14.883166666666666</v>
+      </c>
+      <c r="C8" s="12">
+        <f>AVERAGE(C5:C7)</f>
+        <v>12.298193333333336</v>
+      </c>
+      <c r="D8" s="12">
+        <f>AVERAGE(D5:D7)</f>
+        <v>1.8059666666666667</v>
+      </c>
+      <c r="E8" s="13">
+        <f>AVERAGE(E5:E7)</f>
+        <v>2.3633333333333333E-5</v>
+      </c>
+      <c r="F8" s="11">
+        <f>AVERAGE(F5:F7)</f>
+        <v>72.801233333333343</v>
+      </c>
+      <c r="G8" s="12">
+        <f>AVERAGE(G5:G7)</f>
+        <v>35.403266666666667</v>
+      </c>
+      <c r="H8" s="12">
+        <f>AVERAGE(H5:H7)</f>
+        <v>37.371866666666669</v>
+      </c>
+      <c r="I8" s="13">
+        <f>AVERAGE(I5:I7)</f>
+        <v>1.3486499999999998E-2</v>
+      </c>
+      <c r="J8" s="11">
+        <f>AVERAGE(J5:J7)</f>
+        <v>262.05700000000002</v>
+      </c>
+      <c r="K8" s="12">
+        <f>AVERAGE(K5:K7)</f>
+        <v>68.48123333333335</v>
+      </c>
+      <c r="L8" s="12">
+        <f>AVERAGE(L5:L7)</f>
+        <v>193.33766666666668</v>
+      </c>
+      <c r="M8" s="12">
+        <f>AVERAGE(M5:M7)</f>
+        <v>0.11858393333333334</v>
+      </c>
+      <c r="N8" s="11">
+        <f>AVERAGE(N5:N7)</f>
+        <v>57.707333333333338</v>
+      </c>
+      <c r="O8" s="12">
+        <f>AVERAGE(O5:O7)</f>
+        <v>19.650099999999998</v>
+      </c>
+      <c r="P8" s="12">
+        <f>AVERAGE(P5:P7)</f>
+        <v>43.059300000000007</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>AVERAGE(Q5:Q7)</f>
+        <v>38.930333733333335</v>
+      </c>
+      <c r="R8" s="11">
+        <f>AVERAGE(R5:R7)</f>
+        <v>98.932533333333325</v>
+      </c>
+      <c r="S8" s="12">
+        <f>AVERAGE(S5:S7)</f>
+        <v>27.881900000000002</v>
+      </c>
+      <c r="T8" s="12">
+        <f>AVERAGE(T5:T7)</f>
+        <v>70.934100000000001</v>
+      </c>
+      <c r="U8" s="12">
+        <f>AVERAGE(U5:U7)</f>
+        <v>0.11469076666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1000000000</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>1000000000</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>1000000000</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>1000000000</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>1000000000</v>
+      </c>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>-3572.2</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>-3572.2</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>-3572.2</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>-3572.2</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>-3572.2</v>
+      </c>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="3"/>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>1.1281399999999999</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.69685</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.489311</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1.07643</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1.65564</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.46757399999999999</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.27474599999999999</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="22">
+        <v>1.24631</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1.13198</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.27474599999999999</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="22">
+        <v>1.24631</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>1.13198</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.27474599999999999</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="22">
+        <v>1.24631</v>
+      </c>
+      <c r="U19" s="7">
+        <v>1.13198</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="B2:U2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G10 C10 K10">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>$J10&lt;&gt;$N10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$J10&lt;&gt;$N10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 C10 K10 O10 S10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 G10 K10">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="88">
+      <formula>$J10&lt;&gt;$N10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/graphs.xlsx
+++ b/doc/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\ZCU\5.semestr\PPR\kiv-ppr\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D09B2-97CA-4DE9-9979-8BE5987DD061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B2AF4-1DB0-4AFF-9288-845DA7258CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{99913033-C086-4C4E-9256-FEA28C5FF52C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{99913033-C086-4C4E-9256-FEA28C5FF52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Gauss - 16GB - SSD</t>
+  </si>
+  <si>
+    <t>Gauss - 16GB - SSD (Optimized)</t>
   </si>
 </sst>
 </file>
@@ -400,11 +403,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -421,36 +448,40 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2915,39 +2946,39 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="M3" s="48" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="M3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -2957,49 +2988,49 @@
       <c r="F4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="45" t="s">
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="45" t="s">
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="45" t="s">
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="45" t="s">
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="45" t="s">
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="47"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="40"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="31">
         <v>-0.81929732158196611</v>
       </c>
@@ -3080,11 +3111,11 @@
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="31">
         <v>0.40228653835802053</v>
       </c>
@@ -3168,11 +3199,11 @@
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="31">
         <v>0.51997195728008228</v>
       </c>
@@ -3256,11 +3287,11 @@
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="31">
         <v>-0.76348363734896729</v>
       </c>
@@ -3344,11 +3375,11 @@
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="33">
         <v>-0.85293754038389125</v>
       </c>
@@ -4116,70 +4147,70 @@
       <c r="S23" s="1"/>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="M25" s="48" t="s">
+      <c r="M25" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="43"/>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="M26" s="50" t="s">
+      <c r="M26" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="45" t="s">
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="45" t="s">
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="45" t="s">
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="45" t="s">
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="45" t="s">
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="47"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="40"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="F27" s="21"/>
@@ -5258,16 +5289,16 @@
       <c r="S49" s="28"/>
     </row>
     <row r="66" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="N66" s="49" t="s">
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="N66" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
     </row>
     <row r="67" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C67" s="29" t="str">
@@ -5371,7 +5402,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="M3:AJ3"/>
     <mergeCell ref="N66:P66"/>
     <mergeCell ref="C66:E66"/>
@@ -5393,8 +5423,9 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
   </mergeCells>
-  <conditionalFormatting sqref="V13 N13 R13 Z13">
+  <conditionalFormatting sqref="N13 V13 R13 Z13">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -5425,7 +5456,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="69">
+    <cfRule type="expression" dxfId="14" priority="69">
       <formula>$N13&lt;&gt;$R13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5450,7 +5481,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="41">
+    <cfRule type="expression" dxfId="13" priority="41">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5475,7 +5506,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="38">
+    <cfRule type="expression" dxfId="12" priority="38">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5500,11 +5531,11 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="35">
+    <cfRule type="expression" dxfId="11" priority="35">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35 R35 V35 Z35">
+  <conditionalFormatting sqref="R35 N35 V35 Z35">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -5537,7 +5568,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="30">
+    <cfRule type="expression" dxfId="10" priority="30">
       <formula>$N13&lt;&gt;$R13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5562,7 +5593,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="27">
+    <cfRule type="expression" dxfId="9" priority="27">
       <formula>$N13&lt;&gt;$R13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5587,7 +5618,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="24">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5612,11 +5643,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="21">
+    <cfRule type="expression" dxfId="7" priority="21">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13 N13 V13 Z13 AD13 AH13">
+  <conditionalFormatting sqref="N13 R13 V13 Z13 AD13 AH13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5628,7 +5659,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35 R35 V35 Z35 AD35 AH35">
+  <conditionalFormatting sqref="R35 N35 V35 Z35 AD35 AH35">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5784,7 +5815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12 B18 B15">
+  <conditionalFormatting sqref="B18 B12 B15">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -5816,10 +5847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64414967-48AB-4376-B86B-6073F9B0805A}">
-  <dimension ref="B2:U19"/>
+  <dimension ref="B2:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5827,65 +5858,66 @@
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
     <col min="15" max="15" width="12.140625" customWidth="1"/>
     <col min="19" max="19" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="45" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="45" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="45" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="47"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="40"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -6137,83 +6169,83 @@
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
-        <f>AVERAGE(B5:B7)</f>
+        <f t="shared" ref="B8:U8" si="0">AVERAGE(B5:B7)</f>
         <v>14.883166666666666</v>
       </c>
       <c r="C8" s="12">
-        <f>AVERAGE(C5:C7)</f>
+        <f t="shared" si="0"/>
         <v>12.298193333333336</v>
       </c>
       <c r="D8" s="12">
-        <f>AVERAGE(D5:D7)</f>
+        <f t="shared" si="0"/>
         <v>1.8059666666666667</v>
       </c>
       <c r="E8" s="13">
-        <f>AVERAGE(E5:E7)</f>
+        <f t="shared" si="0"/>
         <v>2.3633333333333333E-5</v>
       </c>
       <c r="F8" s="11">
-        <f>AVERAGE(F5:F7)</f>
+        <f t="shared" si="0"/>
         <v>72.801233333333343</v>
       </c>
       <c r="G8" s="12">
-        <f>AVERAGE(G5:G7)</f>
+        <f t="shared" si="0"/>
         <v>35.403266666666667</v>
       </c>
       <c r="H8" s="12">
-        <f>AVERAGE(H5:H7)</f>
+        <f t="shared" si="0"/>
         <v>37.371866666666669</v>
       </c>
       <c r="I8" s="13">
-        <f>AVERAGE(I5:I7)</f>
+        <f t="shared" si="0"/>
         <v>1.3486499999999998E-2</v>
       </c>
       <c r="J8" s="11">
-        <f>AVERAGE(J5:J7)</f>
+        <f t="shared" si="0"/>
         <v>262.05700000000002</v>
       </c>
       <c r="K8" s="12">
-        <f>AVERAGE(K5:K7)</f>
+        <f t="shared" si="0"/>
         <v>68.48123333333335</v>
       </c>
       <c r="L8" s="12">
-        <f>AVERAGE(L5:L7)</f>
+        <f t="shared" si="0"/>
         <v>193.33766666666668</v>
       </c>
       <c r="M8" s="12">
-        <f>AVERAGE(M5:M7)</f>
+        <f t="shared" si="0"/>
         <v>0.11858393333333334</v>
       </c>
       <c r="N8" s="11">
-        <f>AVERAGE(N5:N7)</f>
+        <f t="shared" si="0"/>
         <v>57.707333333333338</v>
       </c>
       <c r="O8" s="12">
-        <f>AVERAGE(O5:O7)</f>
+        <f t="shared" si="0"/>
         <v>19.650099999999998</v>
       </c>
       <c r="P8" s="12">
-        <f>AVERAGE(P5:P7)</f>
+        <f t="shared" si="0"/>
         <v>43.059300000000007</v>
       </c>
       <c r="Q8" s="12">
-        <f>AVERAGE(Q5:Q7)</f>
+        <f t="shared" si="0"/>
         <v>38.930333733333335</v>
       </c>
       <c r="R8" s="11">
-        <f>AVERAGE(R5:R7)</f>
+        <f t="shared" si="0"/>
         <v>98.932533333333325</v>
       </c>
       <c r="S8" s="12">
-        <f>AVERAGE(S5:S7)</f>
+        <f t="shared" si="0"/>
         <v>27.881900000000002</v>
       </c>
       <c r="T8" s="12">
-        <f>AVERAGE(T5:T7)</f>
+        <f t="shared" si="0"/>
         <v>70.934100000000001</v>
       </c>
       <c r="U8" s="12">
-        <f>AVERAGE(U5:U7)</f>
+        <f t="shared" si="0"/>
         <v>0.11469076666666665</v>
       </c>
     </row>
@@ -6634,17 +6666,826 @@
         <v>1.13198</v>
       </c>
     </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="40"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="23">
+        <v>220.97499999999999</v>
+      </c>
+      <c r="C25" s="24">
+        <v>60.458500000000001</v>
+      </c>
+      <c r="D25" s="24">
+        <v>159.375</v>
+      </c>
+      <c r="E25" s="25">
+        <v>2.007E-4</v>
+      </c>
+      <c r="F25" s="23">
+        <v>75.704499999999996</v>
+      </c>
+      <c r="G25" s="24">
+        <v>36.184100000000001</v>
+      </c>
+      <c r="H25" s="24">
+        <v>36.3277</v>
+      </c>
+      <c r="I25" s="26">
+        <v>4.3109000000000003E-3</v>
+      </c>
+      <c r="J25" s="24">
+        <v>309.15300000000002</v>
+      </c>
+      <c r="K25" s="24">
+        <v>89.282899999999998</v>
+      </c>
+      <c r="L25" s="24">
+        <v>217.67500000000001</v>
+      </c>
+      <c r="M25" s="35">
+        <v>4.2588000000000001E-3</v>
+      </c>
+      <c r="N25" s="24">
+        <v>189.721</v>
+      </c>
+      <c r="O25" s="24">
+        <v>60.680999999999997</v>
+      </c>
+      <c r="P25" s="24">
+        <v>127.90600000000001</v>
+      </c>
+      <c r="Q25" s="35">
+        <v>2.5049E-3</v>
+      </c>
+      <c r="R25" s="24">
+        <v>238.09700000000001</v>
+      </c>
+      <c r="S25" s="24">
+        <v>77.937100000000001</v>
+      </c>
+      <c r="T25" s="24">
+        <v>158.852</v>
+      </c>
+      <c r="U25" s="35">
+        <v>3.1752E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>216.31100000000001</v>
+      </c>
+      <c r="C26">
+        <v>57.555199999999999</v>
+      </c>
+      <c r="D26">
+        <v>158.21100000000001</v>
+      </c>
+      <c r="E26" s="20">
+        <v>2.4120000000000001E-3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>74.160700000000006</v>
+      </c>
+      <c r="G26">
+        <v>36.431899999999999</v>
+      </c>
+      <c r="H26">
+        <v>36.560699999999997</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3.9541999999999997E-3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>226.4</v>
+      </c>
+      <c r="K26">
+        <v>57.271000000000001</v>
+      </c>
+      <c r="L26">
+        <v>168.25800000000001</v>
+      </c>
+      <c r="M26" s="4">
+        <v>5.5205999999999996E-3</v>
+      </c>
+      <c r="N26" s="3">
+        <v>184.72300000000001</v>
+      </c>
+      <c r="O26">
+        <v>60.355699999999999</v>
+      </c>
+      <c r="P26">
+        <v>123.108</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>3.2579000000000002E-3</v>
+      </c>
+      <c r="R26" s="3">
+        <v>237.79</v>
+      </c>
+      <c r="S26">
+        <v>77.967200000000005</v>
+      </c>
+      <c r="T26">
+        <v>158.32599999999999</v>
+      </c>
+      <c r="U26" s="4">
+        <v>2.8037000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>231.11</v>
+      </c>
+      <c r="C27">
+        <v>63.099499999999999</v>
+      </c>
+      <c r="D27">
+        <v>167.499</v>
+      </c>
+      <c r="E27" s="20">
+        <v>2.5569999999999998E-4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>74.1571</v>
+      </c>
+      <c r="G27">
+        <v>37.017400000000002</v>
+      </c>
+      <c r="H27">
+        <v>36.555599999999998</v>
+      </c>
+      <c r="I27" s="4">
+        <v>8.0427999999999993E-3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>241.81399999999999</v>
+      </c>
+      <c r="K27">
+        <v>77.6113</v>
+      </c>
+      <c r="L27">
+        <v>163.12100000000001</v>
+      </c>
+      <c r="M27" s="4">
+        <v>3.3955000000000001E-3</v>
+      </c>
+      <c r="N27" s="3">
+        <v>193.94300000000001</v>
+      </c>
+      <c r="O27">
+        <v>70.497100000000003</v>
+      </c>
+      <c r="P27">
+        <v>121.83199999999999</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>3.4213999999999998E-3</v>
+      </c>
+      <c r="R27" s="3">
+        <v>235.71700000000001</v>
+      </c>
+      <c r="S27">
+        <v>78.445800000000006</v>
+      </c>
+      <c r="T27">
+        <v>156.12200000000001</v>
+      </c>
+      <c r="U27" s="4">
+        <v>2.9532E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
+        <f t="shared" ref="B28" si="1">AVERAGE(B25:B27)</f>
+        <v>222.79866666666666</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" ref="C28" si="2">AVERAGE(C25:C27)</f>
+        <v>60.371066666666671</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" ref="D28" si="3">AVERAGE(D25:D27)</f>
+        <v>161.69500000000002</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" ref="E28" si="4">AVERAGE(E25:E27)</f>
+        <v>9.5613333333333334E-4</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" ref="F28" si="5">AVERAGE(F25:F27)</f>
+        <v>74.67410000000001</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" ref="G28" si="6">AVERAGE(G25:G27)</f>
+        <v>36.544466666666665</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" ref="H28" si="7">AVERAGE(H25:H27)</f>
+        <v>36.481333333333332</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" ref="I28" si="8">AVERAGE(I25:I27)</f>
+        <v>5.4359666666666667E-3</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" ref="J28" si="9">AVERAGE(J25:J27)</f>
+        <v>259.1223333333333</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" ref="K28" si="10">AVERAGE(K25:K27)</f>
+        <v>74.721733333333333</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" ref="L28" si="11">AVERAGE(L25:L27)</f>
+        <v>183.018</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" ref="M28" si="12">AVERAGE(M25:M27)</f>
+        <v>4.391633333333333E-3</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" ref="N28" si="13">AVERAGE(N25:N27)</f>
+        <v>189.46233333333336</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" ref="O28" si="14">AVERAGE(O25:O27)</f>
+        <v>63.844599999999993</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" ref="P28" si="15">AVERAGE(P25:P27)</f>
+        <v>124.282</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" ref="Q28" si="16">AVERAGE(Q25:Q27)</f>
+        <v>3.0614000000000001E-3</v>
+      </c>
+      <c r="R28" s="11">
+        <f t="shared" ref="R28" si="17">AVERAGE(R25:R27)</f>
+        <v>237.20133333333334</v>
+      </c>
+      <c r="S28" s="12">
+        <f t="shared" ref="S28" si="18">AVERAGE(S25:S27)</f>
+        <v>78.116699999999994</v>
+      </c>
+      <c r="T28" s="12">
+        <f t="shared" ref="T28" si="19">AVERAGE(T25:T27)</f>
+        <v>157.76666666666668</v>
+      </c>
+      <c r="U28" s="12">
+        <f t="shared" ref="U28" si="20">AVERAGE(U25:U27)</f>
+        <v>2.9773666666666667E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="16"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>2000000000</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>2000000000</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>2000000000</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30">
+        <v>2000000000</v>
+      </c>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>1000000000</v>
+      </c>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>69484.399999999994</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>69484.399999999994</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>69484.399999999994</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>69484.399999999994</v>
+      </c>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S31">
+        <v>-3572.2</v>
+      </c>
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>-6.4306000000000001</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>-6.4306000000000001</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>-6.4306000000000001</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O32">
+        <v>-6.4306000000000001</v>
+      </c>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>6.1525299999999996</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>6.1525299999999996</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>6.1525299999999996</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>6.1525299999999996</v>
+      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>0.99997599999999998</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>0.99997599999999998</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>0.99997599999999998</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34">
+        <v>0.99997599999999998</v>
+      </c>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S34">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3.4742200000000001E-5</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3.4742200000000001E-5</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="1">
+        <v>3.4742200000000001E-5</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="1">
+        <v>3.4742200000000001E-5</v>
+      </c>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S35" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S36" t="b">
+        <v>1</v>
+      </c>
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="3"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="3"/>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="T38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U38" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="5">
+        <v>7.5109000000000005E-4</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.53470899999999999</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.58389400000000002</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.47949000000000003</v>
+      </c>
+      <c r="F39" s="5">
+        <v>7.5109000000000005E-4</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.53470899999999999</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.58389400000000002</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.47949000000000003</v>
+      </c>
+      <c r="J39" s="5">
+        <v>7.5109000000000005E-4</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.53470899999999999</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.58389400000000002</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.47949000000000003</v>
+      </c>
+      <c r="N39" s="5">
+        <v>7.5109000000000005E-4</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0.53470899999999999</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0.58389400000000002</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0.47949000000000003</v>
+      </c>
+      <c r="R39" s="5">
+        <v>7.5109000000000005E-4</v>
+      </c>
+      <c r="S39" s="6">
+        <v>0.53470899999999999</v>
+      </c>
+      <c r="T39" s="6">
+        <v>0.58389400000000002</v>
+      </c>
+      <c r="U39" s="7">
+        <v>0.47949000000000003</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="B22:U22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
-    <mergeCell ref="B2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="G10 C10 K10">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6654,6 +7495,93 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="20">
+      <formula>$J10&lt;&gt;$N10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="17">
+      <formula>$J10&lt;&gt;$N10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 C10 K10 O10 S10">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 C10 K10">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="101">
+      <formula>$J10&lt;&gt;$N10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30 K30 C30">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6663,7 +7591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="S30">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6675,11 +7603,38 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="7">
-      <formula>$J10&lt;&gt;$N10</formula>
+      <formula>$J30&lt;&gt;$N30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S10">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="G30 S30 K30 O30 C30">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30 G30 C30">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="13">
+      <formula>$J30&lt;&gt;$N30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6688,7 +7643,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S10">
+  <conditionalFormatting sqref="O30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6699,35 +7654,8 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$J10&lt;&gt;$N10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10 C10 K10 O10 S10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10 G10 K10">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="88">
-      <formula>$J10&lt;&gt;$N10</formula>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$J30&lt;&gt;$N30</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/graphs.xlsx
+++ b/doc/graphs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\ZCU\5.semestr\PPR\kiv-ppr\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374E0278-AAD7-4913-B988-269FDFCDA1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF59314-C41D-4038-B060-71361EAE9E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99913033-C086-4C4E-9256-FEA28C5FF52C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{99913033-C086-4C4E-9256-FEA28C5FF52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="33">
   <si>
     <t>Total</t>
   </si>
@@ -104,12 +105,6 @@
     <t>Gauss - 7GB Chart data</t>
   </si>
   <si>
-    <t>Gauss - 7GB - HDD</t>
-  </si>
-  <si>
-    <t>Gauss - 7GB - SSD</t>
-  </si>
-  <si>
     <t>SSD</t>
   </si>
   <si>
@@ -133,11 +128,23 @@
   <si>
     <t>SMP - Vectorized</t>
   </si>
+  <si>
+    <t>Gauss - 16GB - SSD</t>
+  </si>
+  <si>
+    <t>Gauss - 16GB - SSD (Optimized)</t>
+  </si>
+  <si>
+    <t>Gauss - 16GB - HDD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -345,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -394,6 +401,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,11 +427,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,96 +448,18 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -705,7 +646,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gauss - 7GB - HDD</c:v>
+                  <c:v>Gauss - 16GB - HDD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1145,7 +1086,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gauss - 7GB - SSD</c:v>
+                  <c:v>Gauss - 16GB - SSD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1222,23 +1163,20 @@
             <c:strRef>
               <c:f>Sheet3!$C$67:$H$67</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Sequential</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SMP - TBB</c:v>
+                  <c:v>SMP - Vectorized</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SMP - Vectorized</c:v>
+                  <c:v>ALL</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ALL</c:v>
+                  <c:v>"NVIDIA GeForce MX150"</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>"NVIDIA GeForce MX150"</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>"Intel(R) UHD Graphics 620"</c:v>
                 </c:pt>
               </c:strCache>
@@ -1251,22 +1189,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.4421</c:v>
+                  <c:v>136.26233329999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5858439999999998</c:v>
+                  <c:v>68.052400000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8436500000000002</c:v>
+                  <c:v>235.6596667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.38794</c:v>
+                  <c:v>179.0826667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.8337</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>91.404019999999988</c:v>
+                  <c:v>233.429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2965,7 +2900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2973,10 +2908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078017B5-66FF-40D9-BAD6-9D97405F26B6}">
-  <dimension ref="A2:AJ68"/>
+  <dimension ref="B3:AJ76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4:AJ4"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,112 +2938,98 @@
     <col min="34" max="34" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="46" t="s">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="M3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="E4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="44"/>
-      <c r="M3" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="53" t="s">
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="M4" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="40" t="s">
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="42"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49" t="s">
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="45"/>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="31">
-        <v>-0.81929732158196611</v>
+        <v>-0.819297321581966</v>
       </c>
       <c r="F5" s="32">
-        <v>-0.64075102197869582</v>
-      </c>
-      <c r="G5" s="44"/>
+        <v>-0.64075102197869604</v>
+      </c>
       <c r="M5" s="8" t="s">
         <v>0</v>
       </c>
@@ -3182,20 +3103,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="49" t="s">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="31">
         <v>0.40228653835802053</v>
       </c>
       <c r="F6" s="32">
         <v>-0.50144681775142619</v>
       </c>
-      <c r="G6" s="44"/>
       <c r="L6">
         <v>1</v>
       </c>
@@ -3272,20 +3191,18 @@
         <v>0.34370499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="31">
         <v>0.51997195728008228</v>
       </c>
       <c r="F7" s="32">
         <v>-0.26745009719067481</v>
       </c>
-      <c r="G7" s="44"/>
       <c r="L7">
         <v>2</v>
       </c>
@@ -3362,20 +3279,18 @@
         <v>2.098E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="31">
         <v>-0.76348363734896729</v>
       </c>
       <c r="F8" s="32">
         <v>-0.25687770412250732</v>
       </c>
-      <c r="G8" s="44"/>
       <c r="L8">
         <v>3</v>
       </c>
@@ -3452,21 +3367,18 @@
         <v>1.5750000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B9" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="33">
         <v>-0.85293754038389125</v>
       </c>
       <c r="F9" s="34">
         <v>-0.55618984126282922</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="I9" s="44"/>
       <c r="L9">
         <v>4</v>
       </c>
@@ -3543,14 +3455,8 @@
         <v>1.0199E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="44"/>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="F10" s="21"/>
       <c r="L10" s="4">
         <v>5</v>
       </c>
@@ -3627,14 +3533,7 @@
         <v>1.9998200000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L11" s="4"/>
       <c r="M11" s="11">
         <f>AVERAGE(M6:M10)</f>
@@ -3733,14 +3632,9 @@
         <v>7.3018079999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="31"/>
-      <c r="C12" s="44"/>
       <c r="D12" s="31"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
@@ -3766,14 +3660,8 @@
       <c r="AI12" s="15"/>
       <c r="AJ12" s="16"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="44"/>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="F13" s="21"/>
       <c r="M13" s="2" t="s">
         <v>7</v>
       </c>
@@ -3817,13 +3705,7 @@
       </c>
       <c r="AJ13" s="4"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M14" s="2" t="s">
         <v>8</v>
       </c>
@@ -3867,13 +3749,9 @@
       </c>
       <c r="AJ14" s="4"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
-      <c r="C15" s="44"/>
       <c r="D15" s="31"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
       <c r="M15" s="2" t="s">
         <v>9</v>
       </c>
@@ -3917,13 +3795,8 @@
       </c>
       <c r="AJ15" s="4"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="F16" s="21"/>
       <c r="M16" s="2" t="s">
         <v>10</v>
       </c>
@@ -3967,14 +3840,7 @@
       </c>
       <c r="AJ16" s="4"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M17" s="2" t="s">
         <v>11</v>
       </c>
@@ -4018,14 +3884,9 @@
       </c>
       <c r="AJ17" s="4"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
-      <c r="C18" s="44"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
       <c r="M18" s="2" t="s">
         <v>12</v>
       </c>
@@ -4069,13 +3930,7 @@
       </c>
       <c r="AJ18" s="4"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M19" s="2" t="s">
         <v>13</v>
       </c>
@@ -4119,7 +3974,7 @@
       </c>
       <c r="AJ19" s="4"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M20" s="3"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="3"/>
@@ -4133,7 +3988,7 @@
       <c r="AG20" s="3"/>
       <c r="AJ20" s="4"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M21" s="17" t="s">
         <v>14</v>
       </c>
@@ -4207,7 +4062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M22" s="5">
         <v>1.1281399999999999</v>
       </c>
@@ -4281,76 +4136,76 @@
         <v>1.13198</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="S23" s="1"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="M25" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="43"/>
-      <c r="AJ25" s="43"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="M26" s="37" t="s">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="M25" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="M26" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="40" t="s">
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="41"/>
-      <c r="AJ26" s="42"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="45"/>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -4428,7 +4283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L28">
         <v>1</v>
       </c>
@@ -4505,7 +4360,7 @@
         <v>0.119835</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>2</v>
       </c>
@@ -4582,7 +4437,7 @@
         <v>0.34987000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L30">
         <v>3</v>
       </c>
@@ -4659,7 +4514,7 @@
         <v>0.34947</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L31">
         <v>4</v>
       </c>
@@ -4736,7 +4591,7 @@
         <v>6.5799999999999995E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L32">
         <v>5</v>
       </c>
@@ -5427,16 +5282,16 @@
       <c r="S49" s="28"/>
     </row>
     <row r="66" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="N66" s="36" t="s">
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="N66" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
     </row>
     <row r="67" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C67" s="29" t="str">
@@ -5444,22 +5299,18 @@
         <v>Sequential</v>
       </c>
       <c r="D67" s="29" t="str">
-        <f>O67</f>
-        <v>SMP - TBB</v>
-      </c>
-      <c r="E67" s="29" t="str">
         <f>P67</f>
         <v>SMP - Vectorized</v>
       </c>
-      <c r="F67" s="29" t="str">
+      <c r="E67" s="29" t="str">
         <f>Q67</f>
         <v>ALL</v>
       </c>
-      <c r="G67" s="29" t="str">
+      <c r="F67" s="29" t="str">
         <f>AC4</f>
         <v>"NVIDIA GeForce MX150"</v>
       </c>
-      <c r="H67" s="29" t="str">
+      <c r="G67" s="29" t="str">
         <f>AG4</f>
         <v>"Intel(R) UHD Graphics 620"</v>
       </c>
@@ -5489,29 +5340,20 @@
       </c>
     </row>
     <row r="68" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C68">
-        <f>M11</f>
-        <v>13.4421</v>
+      <c r="C68" s="11">
+        <v>136.26233329999999</v>
       </c>
       <c r="D68">
-        <f>Q11</f>
-        <v>9.5858439999999998</v>
+        <v>68.052400000000006</v>
       </c>
       <c r="E68">
-        <f>U11</f>
-        <v>8.8436500000000002</v>
+        <v>235.6596667</v>
       </c>
       <c r="F68">
-        <f>Y11</f>
-        <v>74.38794</v>
+        <v>179.0826667</v>
       </c>
       <c r="G68">
-        <f>AC11</f>
-        <v>56.8337</v>
-      </c>
-      <c r="H68">
-        <f>AG11</f>
-        <v>91.404019999999988</v>
+        <v>233.429</v>
       </c>
       <c r="N68">
         <f>M33</f>
@@ -5538,8 +5380,22 @@
         <v>128.57857999999999</v>
       </c>
     </row>
+    <row r="76" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M76" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="M3:AJ3"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:T26"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
@@ -5551,17 +5407,6 @@
     <mergeCell ref="U26:X26"/>
     <mergeCell ref="Y26:AB26"/>
     <mergeCell ref="M4:P4"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="M3:AJ3"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:T26"/>
   </mergeCells>
   <conditionalFormatting sqref="V13 N13 R13 Z13">
     <cfRule type="colorScale" priority="53">
@@ -5594,7 +5439,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="69">
+    <cfRule type="expression" dxfId="13" priority="69">
       <formula>$N13&lt;&gt;$R13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5619,7 +5464,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="41">
+    <cfRule type="expression" dxfId="12" priority="41">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5644,7 +5489,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="38">
+    <cfRule type="expression" dxfId="11" priority="38">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5669,7 +5514,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="35">
+    <cfRule type="expression" dxfId="10" priority="35">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5706,7 +5551,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="9" priority="30">
       <formula>$N13&lt;&gt;$R13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5731,7 +5576,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="8" priority="27">
       <formula>$N13&lt;&gt;$R13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5756,7 +5601,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="7" priority="24">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5781,7 +5626,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="21">
+    <cfRule type="expression" dxfId="6" priority="21">
       <formula>$N35&lt;&gt;$R35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5981,4 +5826,1971 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64414967-48AB-4376-B86B-6073F9B0805A}">
+  <dimension ref="B2:AA39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="W2" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="52"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="55">
+        <f>B8/J8-1</f>
+        <v>-0.42178339102010098</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B5" s="23">
+        <v>133.35300000000001</v>
+      </c>
+      <c r="C5" s="24">
+        <v>55.591799999999999</v>
+      </c>
+      <c r="D5" s="24">
+        <v>76.543099999999995</v>
+      </c>
+      <c r="E5" s="25">
+        <v>4.9021999999999998E-3</v>
+      </c>
+      <c r="F5" s="23">
+        <v>74.724599999999995</v>
+      </c>
+      <c r="G5" s="24">
+        <v>41.382100000000001</v>
+      </c>
+      <c r="H5" s="24">
+        <v>33.338900000000002</v>
+      </c>
+      <c r="I5" s="26">
+        <v>2.129E-4</v>
+      </c>
+      <c r="J5" s="24">
+        <v>234.36500000000001</v>
+      </c>
+      <c r="K5" s="24">
+        <v>70.735200000000006</v>
+      </c>
+      <c r="L5" s="24">
+        <v>163.62799999999999</v>
+      </c>
+      <c r="M5" s="35">
+        <v>1.7290000000000001E-3</v>
+      </c>
+      <c r="N5" s="24">
+        <v>174.86600000000001</v>
+      </c>
+      <c r="O5" s="24">
+        <v>51.337699999999998</v>
+      </c>
+      <c r="P5" s="24">
+        <v>123.19499999999999</v>
+      </c>
+      <c r="Q5" s="35">
+        <v>0.33196500000000001</v>
+      </c>
+      <c r="R5" s="24">
+        <v>235.15199999999999</v>
+      </c>
+      <c r="S5" s="24">
+        <v>71.814599999999999</v>
+      </c>
+      <c r="T5" s="24">
+        <v>162.995</v>
+      </c>
+      <c r="U5" s="35">
+        <v>0.342418</v>
+      </c>
+      <c r="W5" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="55">
+        <f>B8/F8-1</f>
+        <v>1.0023148828451807</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>140.59700000000001</v>
+      </c>
+      <c r="C6">
+        <v>55.095199999999998</v>
+      </c>
+      <c r="D6">
+        <v>84.084800000000001</v>
+      </c>
+      <c r="E6" s="20">
+        <v>2.6841999999999999E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>64.704599999999999</v>
+      </c>
+      <c r="G6">
+        <v>32.177700000000002</v>
+      </c>
+      <c r="H6">
+        <v>32.526499999999999</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.181E-4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>239.55099999999999</v>
+      </c>
+      <c r="K6">
+        <v>69.950199999999995</v>
+      </c>
+      <c r="L6">
+        <v>169.59899999999999</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2.5937999999999998E-3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>182.399</v>
+      </c>
+      <c r="O6">
+        <v>56.750399999999999</v>
+      </c>
+      <c r="P6">
+        <v>125.64700000000001</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1.7256999999999999E-3</v>
+      </c>
+      <c r="R6" s="3">
+        <v>234.79300000000001</v>
+      </c>
+      <c r="S6">
+        <v>75.477699999999999</v>
+      </c>
+      <c r="T6">
+        <v>159.31399999999999</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1.5635E-3</v>
+      </c>
+      <c r="W6" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="55">
+        <f>B8/N8-1</f>
+        <v>-0.23910931264518431</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>134.83699999999999</v>
+      </c>
+      <c r="C7">
+        <v>56.902999999999999</v>
+      </c>
+      <c r="D7">
+        <v>76.671999999999997</v>
+      </c>
+      <c r="E7" s="20">
+        <v>4.6353000000000002E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>64.727999999999994</v>
+      </c>
+      <c r="G7">
+        <v>32.459400000000002</v>
+      </c>
+      <c r="H7">
+        <v>32.268000000000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.031E-4</v>
+      </c>
+      <c r="J7" s="3">
+        <v>233.06299999999999</v>
+      </c>
+      <c r="K7">
+        <v>67.907700000000006</v>
+      </c>
+      <c r="L7">
+        <v>165.15299999999999</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1.6872E-3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>179.983</v>
+      </c>
+      <c r="O7">
+        <v>56.974499999999999</v>
+      </c>
+      <c r="P7">
+        <v>123.006</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1.6479999999999999E-3</v>
+      </c>
+      <c r="R7" s="3">
+        <v>230.34200000000001</v>
+      </c>
+      <c r="S7">
+        <v>71.686899999999994</v>
+      </c>
+      <c r="T7">
+        <v>158.65299999999999</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1.7841999999999999E-3</v>
+      </c>
+      <c r="W7" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="56">
+        <f>B8/R8-1</f>
+        <v>-0.41625790568723964</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
+        <f>AVERAGE(B5:B7)</f>
+        <v>136.26233333333334</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" ref="B8:U8" si="0">AVERAGE(C5:C7)</f>
+        <v>55.863333333333337</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>79.099966666666674</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>4.0739000000000001E-3</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>68.052399999999992</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>35.339733333333335</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>32.711133333333329</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7803333333333334E-4</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>235.65966666666668</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="0"/>
+        <v>69.53103333333334</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="0"/>
+        <v>166.12666666666667</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0033333333333331E-3</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="0"/>
+        <v>179.08266666666668</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" si="0"/>
+        <v>55.02086666666667</v>
+      </c>
+      <c r="P8" s="12">
+        <f t="shared" si="0"/>
+        <v>123.94933333333331</v>
+      </c>
+      <c r="Q8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.11177956666666666</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="0"/>
+        <v>233.429</v>
+      </c>
+      <c r="S8" s="12">
+        <f t="shared" si="0"/>
+        <v>72.993066666666664</v>
+      </c>
+      <c r="T8" s="12">
+        <f t="shared" si="0"/>
+        <v>160.32066666666665</v>
+      </c>
+      <c r="U8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.11525523333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1000000000</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>1000000000</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>1000000000</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>1000000000</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>1000000000</v>
+      </c>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>-3572.2</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>-3572.2</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>-3572.2</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>-3572.2</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>-3572.2</v>
+      </c>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="W15" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="11">
+        <f>B8</f>
+        <v>136.26233333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4"/>
+      <c r="W16" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16">
+        <f>F8</f>
+        <v>68.052399999999992</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="3"/>
+      <c r="U17" s="4"/>
+      <c r="W17" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17">
+        <f>J8</f>
+        <v>235.65966666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="W18" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18">
+        <f>N8</f>
+        <v>179.08266666666668</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>1.1281399999999999</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.69685</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.489311</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1.07643</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1.65564</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.46757399999999999</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.27474599999999999</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="22">
+        <v>1.24631</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1.13198</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.27474599999999999</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="22">
+        <v>1.24631</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>1.13198</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.27474599999999999</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="22">
+        <v>1.24631</v>
+      </c>
+      <c r="U19" s="7">
+        <v>1.13198</v>
+      </c>
+      <c r="W19" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19">
+        <f>R8</f>
+        <v>233.429</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="45"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B25" s="23">
+        <v>220.97499999999999</v>
+      </c>
+      <c r="C25" s="24">
+        <v>60.458500000000001</v>
+      </c>
+      <c r="D25" s="24">
+        <v>159.375</v>
+      </c>
+      <c r="E25" s="25">
+        <v>2.007E-4</v>
+      </c>
+      <c r="F25" s="23">
+        <v>75.704499999999996</v>
+      </c>
+      <c r="G25" s="24">
+        <v>36.184100000000001</v>
+      </c>
+      <c r="H25" s="24">
+        <v>36.3277</v>
+      </c>
+      <c r="I25" s="26">
+        <v>4.3109000000000003E-3</v>
+      </c>
+      <c r="J25" s="24">
+        <v>309.15300000000002</v>
+      </c>
+      <c r="K25" s="24">
+        <v>89.282899999999998</v>
+      </c>
+      <c r="L25" s="24">
+        <v>217.67500000000001</v>
+      </c>
+      <c r="M25" s="35">
+        <v>4.2588000000000001E-3</v>
+      </c>
+      <c r="N25" s="24">
+        <v>189.721</v>
+      </c>
+      <c r="O25" s="24">
+        <v>60.680999999999997</v>
+      </c>
+      <c r="P25" s="24">
+        <v>127.90600000000001</v>
+      </c>
+      <c r="Q25" s="35">
+        <v>2.5049E-3</v>
+      </c>
+      <c r="R25" s="24">
+        <v>238.09700000000001</v>
+      </c>
+      <c r="S25" s="24">
+        <v>77.937100000000001</v>
+      </c>
+      <c r="T25" s="24">
+        <v>158.852</v>
+      </c>
+      <c r="U25" s="35">
+        <v>3.1752E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>216.31100000000001</v>
+      </c>
+      <c r="C26">
+        <v>57.555199999999999</v>
+      </c>
+      <c r="D26">
+        <v>158.21100000000001</v>
+      </c>
+      <c r="E26" s="20">
+        <v>2.4120000000000001E-3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>74.160700000000006</v>
+      </c>
+      <c r="G26">
+        <v>36.431899999999999</v>
+      </c>
+      <c r="H26">
+        <v>36.560699999999997</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3.9541999999999997E-3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>226.4</v>
+      </c>
+      <c r="K26">
+        <v>57.271000000000001</v>
+      </c>
+      <c r="L26">
+        <v>168.25800000000001</v>
+      </c>
+      <c r="M26" s="4">
+        <v>5.5205999999999996E-3</v>
+      </c>
+      <c r="N26" s="3">
+        <v>184.72300000000001</v>
+      </c>
+      <c r="O26">
+        <v>60.355699999999999</v>
+      </c>
+      <c r="P26">
+        <v>123.108</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>3.2579000000000002E-3</v>
+      </c>
+      <c r="R26" s="3">
+        <v>237.79</v>
+      </c>
+      <c r="S26">
+        <v>77.967200000000005</v>
+      </c>
+      <c r="T26">
+        <v>158.32599999999999</v>
+      </c>
+      <c r="U26" s="4">
+        <v>2.8037000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>231.11</v>
+      </c>
+      <c r="C27">
+        <v>63.099499999999999</v>
+      </c>
+      <c r="D27">
+        <v>167.499</v>
+      </c>
+      <c r="E27" s="20">
+        <v>2.5569999999999998E-4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>74.1571</v>
+      </c>
+      <c r="G27">
+        <v>37.017400000000002</v>
+      </c>
+      <c r="H27">
+        <v>36.555599999999998</v>
+      </c>
+      <c r="I27" s="4">
+        <v>8.0427999999999993E-3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>241.81399999999999</v>
+      </c>
+      <c r="K27">
+        <v>77.6113</v>
+      </c>
+      <c r="L27">
+        <v>163.12100000000001</v>
+      </c>
+      <c r="M27" s="4">
+        <v>3.3955000000000001E-3</v>
+      </c>
+      <c r="N27" s="3">
+        <v>193.94300000000001</v>
+      </c>
+      <c r="O27">
+        <v>70.497100000000003</v>
+      </c>
+      <c r="P27">
+        <v>121.83199999999999</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>3.4213999999999998E-3</v>
+      </c>
+      <c r="R27" s="3">
+        <v>235.71700000000001</v>
+      </c>
+      <c r="S27">
+        <v>78.445800000000006</v>
+      </c>
+      <c r="T27">
+        <v>156.12200000000001</v>
+      </c>
+      <c r="U27" s="4">
+        <v>2.9532E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
+        <f t="shared" ref="B28" si="1">AVERAGE(B25:B27)</f>
+        <v>222.79866666666666</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" ref="C28" si="2">AVERAGE(C25:C27)</f>
+        <v>60.371066666666671</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" ref="D28" si="3">AVERAGE(D25:D27)</f>
+        <v>161.69500000000002</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" ref="E28" si="4">AVERAGE(E25:E27)</f>
+        <v>9.5613333333333334E-4</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" ref="F28" si="5">AVERAGE(F25:F27)</f>
+        <v>74.67410000000001</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" ref="G28" si="6">AVERAGE(G25:G27)</f>
+        <v>36.544466666666665</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" ref="H28" si="7">AVERAGE(H25:H27)</f>
+        <v>36.481333333333332</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" ref="I28" si="8">AVERAGE(I25:I27)</f>
+        <v>5.4359666666666667E-3</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" ref="J28" si="9">AVERAGE(J25:J27)</f>
+        <v>259.1223333333333</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" ref="K28" si="10">AVERAGE(K25:K27)</f>
+        <v>74.721733333333333</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" ref="L28" si="11">AVERAGE(L25:L27)</f>
+        <v>183.018</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" ref="M28" si="12">AVERAGE(M25:M27)</f>
+        <v>4.391633333333333E-3</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" ref="N28" si="13">AVERAGE(N25:N27)</f>
+        <v>189.46233333333336</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" ref="O28" si="14">AVERAGE(O25:O27)</f>
+        <v>63.844599999999993</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" ref="P28" si="15">AVERAGE(P25:P27)</f>
+        <v>124.282</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" ref="Q28" si="16">AVERAGE(Q25:Q27)</f>
+        <v>3.0614000000000001E-3</v>
+      </c>
+      <c r="R28" s="11">
+        <f t="shared" ref="R28" si="17">AVERAGE(R25:R27)</f>
+        <v>237.20133333333334</v>
+      </c>
+      <c r="S28" s="12">
+        <f t="shared" ref="S28" si="18">AVERAGE(S25:S27)</f>
+        <v>78.116699999999994</v>
+      </c>
+      <c r="T28" s="12">
+        <f t="shared" ref="T28" si="19">AVERAGE(T25:T27)</f>
+        <v>157.76666666666668</v>
+      </c>
+      <c r="U28" s="12">
+        <f t="shared" ref="U28" si="20">AVERAGE(U25:U27)</f>
+        <v>2.9773666666666667E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="16"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>2000000000</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>2000000000</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>2000000000</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30">
+        <v>2000000000</v>
+      </c>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>1000000000</v>
+      </c>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>69484.399999999994</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>69484.399999999994</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>69484.399999999994</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>69484.399999999994</v>
+      </c>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S31">
+        <v>-3572.2</v>
+      </c>
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>-6.4306000000000001</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>-6.4306000000000001</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>-6.4306000000000001</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O32">
+        <v>-6.4306000000000001</v>
+      </c>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32">
+        <v>-6.1092199999999997</v>
+      </c>
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>6.1525299999999996</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>6.1525299999999996</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>6.1525299999999996</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>6.1525299999999996</v>
+      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <v>5.8726099999999999</v>
+      </c>
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>0.99997599999999998</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>0.99997599999999998</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>0.99997599999999998</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34">
+        <v>0.99997599999999998</v>
+      </c>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S34">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3.4742200000000001E-5</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3.4742200000000001E-5</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="1">
+        <v>3.4742200000000001E-5</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="1">
+        <v>3.4742200000000001E-5</v>
+      </c>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S35" s="1">
+        <v>-3.5721999999999999E-6</v>
+      </c>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S36" t="b">
+        <v>1</v>
+      </c>
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="3"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="3"/>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="T38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U38" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="5">
+        <v>7.5109000000000005E-4</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.53470899999999999</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.58389400000000002</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.47949000000000003</v>
+      </c>
+      <c r="F39" s="5">
+        <v>7.5109000000000005E-4</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.53470899999999999</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.58389400000000002</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.47949000000000003</v>
+      </c>
+      <c r="J39" s="5">
+        <v>7.5109000000000005E-4</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.53470899999999999</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.58389400000000002</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.47949000000000003</v>
+      </c>
+      <c r="N39" s="5">
+        <v>7.5109000000000005E-4</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0.53470899999999999</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0.58389400000000002</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0.47949000000000003</v>
+      </c>
+      <c r="R39" s="5">
+        <v>7.5109000000000005E-4</v>
+      </c>
+      <c r="S39" s="6">
+        <v>0.53470899999999999</v>
+      </c>
+      <c r="T39" s="6">
+        <v>0.58389400000000002</v>
+      </c>
+      <c r="U39" s="7">
+        <v>0.47949000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="B22:U22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C10 G10 K10">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="28">
+      <formula>$J10&lt;&gt;$N10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="25">
+      <formula>$J10&lt;&gt;$N10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 G10 K10 O10 S10">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 G10 K10">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="109">
+      <formula>$J10&lt;&gt;$N10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30 K30 C30">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="15">
+      <formula>$J30&lt;&gt;$N30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30 S30 K30 O30 C30">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30 G30 C30">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="21">
+      <formula>$J30&lt;&gt;$N30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>$J30&lt;&gt;$N30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:Z5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:Z7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>